--- a/data/processed/classification-expset-1/kstar-plot.xlsx
+++ b/data/processed/classification-expset-1/kstar-plot.xlsx
@@ -14,10 +14,7 @@
   <sheets>
     <sheet name="kstar-results.csv" sheetId="1" r:id="rId1"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId2"/>
-  </externalReferences>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -7330,11 +7327,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2097616672"/>
-        <c:axId val="-2091193648"/>
+        <c:axId val="-2094161824"/>
+        <c:axId val="-2094154272"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2097616672"/>
+        <c:axId val="-2094161824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="50.0"/>
@@ -7444,12 +7441,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2091193648"/>
+        <c:crossAx val="-2094154272"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2091193648"/>
+        <c:axId val="-2094154272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="50.0"/>
@@ -7559,7 +7556,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2097616672"/>
+        <c:crossAx val="-2094161824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -14779,11 +14776,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="2122389600"/>
-        <c:axId val="-2097590112"/>
+        <c:axId val="-2095173600"/>
+        <c:axId val="-2093641904"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="2122389600"/>
+        <c:axId val="-2095173600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="50.0"/>
@@ -14893,12 +14890,12 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2097590112"/>
+        <c:crossAx val="-2093641904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2097590112"/>
+        <c:axId val="-2093641904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="50.0"/>
@@ -15008,7 +15005,7 @@
             <a:endParaRPr lang="zh-CN"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2122389600"/>
+        <c:crossAx val="-2095173600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -16232,8210 +16229,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="combined-exp-excl0-data.csv"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="2">
-          <cell r="B2">
-            <v>1</v>
-          </cell>
-          <cell r="F2">
-            <v>1</v>
-          </cell>
-          <cell r="G2" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="H2" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="B3">
-            <v>1</v>
-          </cell>
-          <cell r="F3">
-            <v>1</v>
-          </cell>
-          <cell r="G3" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="H3" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="B4">
-            <v>1</v>
-          </cell>
-          <cell r="F4">
-            <v>1</v>
-          </cell>
-          <cell r="G4" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="H4" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="B5">
-            <v>1</v>
-          </cell>
-          <cell r="F5">
-            <v>1</v>
-          </cell>
-          <cell r="G5" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="H5" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="B6">
-            <v>0</v>
-          </cell>
-          <cell r="F6">
-            <v>0</v>
-          </cell>
-          <cell r="G6" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="H6" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="B7">
-            <v>10</v>
-          </cell>
-          <cell r="F7">
-            <v>10</v>
-          </cell>
-          <cell r="G7" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="H7" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="B8">
-            <v>7</v>
-          </cell>
-          <cell r="F8">
-            <v>7</v>
-          </cell>
-          <cell r="G8" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="H8" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="B9">
-            <v>7</v>
-          </cell>
-          <cell r="F9">
-            <v>7</v>
-          </cell>
-          <cell r="G9" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="H9" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="B10">
-            <v>7</v>
-          </cell>
-          <cell r="F10">
-            <v>7</v>
-          </cell>
-          <cell r="G10" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="H10" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="B11">
-            <v>7</v>
-          </cell>
-          <cell r="F11">
-            <v>7</v>
-          </cell>
-          <cell r="G11" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="H11" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="B12">
-            <v>7</v>
-          </cell>
-          <cell r="F12">
-            <v>7</v>
-          </cell>
-          <cell r="G12" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="H12" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="B13">
-            <v>7</v>
-          </cell>
-          <cell r="F13">
-            <v>7</v>
-          </cell>
-          <cell r="G13" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="H13" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="B14">
-            <v>7</v>
-          </cell>
-          <cell r="F14">
-            <v>7</v>
-          </cell>
-          <cell r="G14" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="H14" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="B15">
-            <v>7</v>
-          </cell>
-          <cell r="F15">
-            <v>7</v>
-          </cell>
-          <cell r="G15" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="H15" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="B16">
-            <v>7</v>
-          </cell>
-          <cell r="F16">
-            <v>7</v>
-          </cell>
-          <cell r="G16" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="H16" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="B17">
-            <v>7</v>
-          </cell>
-          <cell r="F17">
-            <v>7</v>
-          </cell>
-          <cell r="G17" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="H17" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="B18">
-            <v>7</v>
-          </cell>
-          <cell r="F18">
-            <v>7</v>
-          </cell>
-          <cell r="G18" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="H18" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="B19">
-            <v>7</v>
-          </cell>
-          <cell r="F19">
-            <v>7</v>
-          </cell>
-          <cell r="G19" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="H19" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="B20">
-            <v>7</v>
-          </cell>
-          <cell r="F20">
-            <v>7</v>
-          </cell>
-          <cell r="G20" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="H20" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="B21">
-            <v>7</v>
-          </cell>
-          <cell r="F21">
-            <v>7</v>
-          </cell>
-          <cell r="G21" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="H21" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="B22">
-            <v>7</v>
-          </cell>
-          <cell r="F22">
-            <v>7</v>
-          </cell>
-          <cell r="G22" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="H22" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="B23">
-            <v>3</v>
-          </cell>
-          <cell r="F23">
-            <v>3</v>
-          </cell>
-          <cell r="G23" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="H23" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="B24">
-            <v>4</v>
-          </cell>
-          <cell r="F24">
-            <v>3</v>
-          </cell>
-          <cell r="G24" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="H24" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="B25">
-            <v>4</v>
-          </cell>
-          <cell r="F25">
-            <v>3</v>
-          </cell>
-          <cell r="G25" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="H25" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="B26">
-            <v>4</v>
-          </cell>
-          <cell r="F26">
-            <v>3</v>
-          </cell>
-          <cell r="G26" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="H26" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="B27">
-            <v>0</v>
-          </cell>
-          <cell r="F27">
-            <v>0</v>
-          </cell>
-          <cell r="G27" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="H27" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="B28">
-            <v>9</v>
-          </cell>
-          <cell r="F28">
-            <v>9</v>
-          </cell>
-          <cell r="G28" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="H28" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="B29">
-            <v>9</v>
-          </cell>
-          <cell r="F29">
-            <v>9</v>
-          </cell>
-          <cell r="G29" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="H29" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="B30">
-            <v>9</v>
-          </cell>
-          <cell r="F30">
-            <v>9</v>
-          </cell>
-          <cell r="G30" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="H30" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="B31">
-            <v>9</v>
-          </cell>
-          <cell r="F31">
-            <v>9</v>
-          </cell>
-          <cell r="G31" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="H31" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="B32">
-            <v>9</v>
-          </cell>
-          <cell r="F32">
-            <v>9</v>
-          </cell>
-          <cell r="G32" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="H32" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="B33">
-            <v>9</v>
-          </cell>
-          <cell r="F33">
-            <v>9</v>
-          </cell>
-          <cell r="G33" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="H33" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="B34">
-            <v>9</v>
-          </cell>
-          <cell r="F34">
-            <v>9</v>
-          </cell>
-          <cell r="G34" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="H34" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="B35">
-            <v>9</v>
-          </cell>
-          <cell r="F35">
-            <v>9</v>
-          </cell>
-          <cell r="G35" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="H35" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="36">
-          <cell r="B36">
-            <v>9</v>
-          </cell>
-          <cell r="F36">
-            <v>9</v>
-          </cell>
-          <cell r="G36" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="H36" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="37">
-          <cell r="B37">
-            <v>9</v>
-          </cell>
-          <cell r="F37">
-            <v>9</v>
-          </cell>
-          <cell r="G37" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="H37" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="38">
-          <cell r="B38">
-            <v>9</v>
-          </cell>
-          <cell r="F38">
-            <v>9</v>
-          </cell>
-          <cell r="G38" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="H38" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="39">
-          <cell r="B39">
-            <v>9</v>
-          </cell>
-          <cell r="F39">
-            <v>9</v>
-          </cell>
-          <cell r="G39" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="H39" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="40">
-          <cell r="B40">
-            <v>9</v>
-          </cell>
-          <cell r="F40">
-            <v>9</v>
-          </cell>
-          <cell r="G40" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="H40" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="41">
-          <cell r="B41">
-            <v>5</v>
-          </cell>
-          <cell r="F41">
-            <v>5</v>
-          </cell>
-          <cell r="G41" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="H41" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="42">
-          <cell r="B42">
-            <v>4</v>
-          </cell>
-          <cell r="F42">
-            <v>4</v>
-          </cell>
-          <cell r="G42" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="H42" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="43">
-          <cell r="B43">
-            <v>4</v>
-          </cell>
-          <cell r="F43">
-            <v>4</v>
-          </cell>
-          <cell r="G43" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="H43" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="44">
-          <cell r="B44">
-            <v>5</v>
-          </cell>
-          <cell r="F44">
-            <v>5</v>
-          </cell>
-          <cell r="G44" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="H44" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="45">
-          <cell r="B45">
-            <v>5</v>
-          </cell>
-          <cell r="F45">
-            <v>5</v>
-          </cell>
-          <cell r="G45" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="H45" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="46">
-          <cell r="B46">
-            <v>5</v>
-          </cell>
-          <cell r="F46" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="G46">
-            <v>5</v>
-          </cell>
-          <cell r="H46" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="47">
-          <cell r="B47">
-            <v>5</v>
-          </cell>
-          <cell r="F47" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="G47">
-            <v>5</v>
-          </cell>
-          <cell r="H47" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="48">
-          <cell r="B48">
-            <v>5</v>
-          </cell>
-          <cell r="F48" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="G48">
-            <v>5</v>
-          </cell>
-          <cell r="H48" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="49">
-          <cell r="B49">
-            <v>5</v>
-          </cell>
-          <cell r="F49" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="G49">
-            <v>5</v>
-          </cell>
-          <cell r="H49" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="50">
-          <cell r="B50">
-            <v>5</v>
-          </cell>
-          <cell r="F50" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="G50">
-            <v>5</v>
-          </cell>
-          <cell r="H50" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="51">
-          <cell r="B51">
-            <v>5</v>
-          </cell>
-          <cell r="F51" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="G51">
-            <v>5</v>
-          </cell>
-          <cell r="H51" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="52">
-          <cell r="B52">
-            <v>5</v>
-          </cell>
-          <cell r="F52" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="G52">
-            <v>5</v>
-          </cell>
-          <cell r="H52" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="53">
-          <cell r="B53">
-            <v>5</v>
-          </cell>
-          <cell r="F53" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="G53">
-            <v>5</v>
-          </cell>
-          <cell r="H53" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="54">
-          <cell r="B54">
-            <v>5</v>
-          </cell>
-          <cell r="F54" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="G54">
-            <v>5</v>
-          </cell>
-          <cell r="H54" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="55">
-          <cell r="B55">
-            <v>5</v>
-          </cell>
-          <cell r="F55" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="G55">
-            <v>5</v>
-          </cell>
-          <cell r="H55" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="56">
-          <cell r="B56">
-            <v>5</v>
-          </cell>
-          <cell r="F56" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="G56">
-            <v>5</v>
-          </cell>
-          <cell r="H56" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="57">
-          <cell r="B57">
-            <v>5</v>
-          </cell>
-          <cell r="F57" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="G57">
-            <v>5</v>
-          </cell>
-          <cell r="H57" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="58">
-          <cell r="B58">
-            <v>15</v>
-          </cell>
-          <cell r="F58" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="G58">
-            <v>8</v>
-          </cell>
-          <cell r="H58" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="59">
-          <cell r="B59">
-            <v>12</v>
-          </cell>
-          <cell r="F59" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="G59">
-            <v>12</v>
-          </cell>
-          <cell r="H59" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="60">
-          <cell r="B60">
-            <v>11</v>
-          </cell>
-          <cell r="F60" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="G60">
-            <v>6</v>
-          </cell>
-          <cell r="H60" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="61">
-          <cell r="B61">
-            <v>14</v>
-          </cell>
-          <cell r="F61" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="G61">
-            <v>7</v>
-          </cell>
-          <cell r="H61" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="62">
-          <cell r="B62">
-            <v>12</v>
-          </cell>
-          <cell r="F62" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="G62">
-            <v>6</v>
-          </cell>
-          <cell r="H62" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="63">
-          <cell r="B63">
-            <v>12</v>
-          </cell>
-          <cell r="F63" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="G63">
-            <v>6</v>
-          </cell>
-          <cell r="H63" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="64">
-          <cell r="B64">
-            <v>13</v>
-          </cell>
-          <cell r="F64" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="G64">
-            <v>7</v>
-          </cell>
-          <cell r="H64" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="65">
-          <cell r="B65">
-            <v>12</v>
-          </cell>
-          <cell r="F65" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="G65">
-            <v>6</v>
-          </cell>
-          <cell r="H65" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="66">
-          <cell r="B66">
-            <v>8</v>
-          </cell>
-          <cell r="F66" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="G66">
-            <v>6</v>
-          </cell>
-          <cell r="H66" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="67">
-          <cell r="B67">
-            <v>6</v>
-          </cell>
-          <cell r="F67">
-            <v>6</v>
-          </cell>
-          <cell r="G67" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="H67" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="68">
-          <cell r="B68">
-            <v>6</v>
-          </cell>
-          <cell r="F68">
-            <v>6</v>
-          </cell>
-          <cell r="G68" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="H68" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="69">
-          <cell r="B69">
-            <v>6</v>
-          </cell>
-          <cell r="F69">
-            <v>6</v>
-          </cell>
-          <cell r="G69" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="H69" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="70">
-          <cell r="B70">
-            <v>7</v>
-          </cell>
-          <cell r="F70">
-            <v>7</v>
-          </cell>
-          <cell r="G70" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="H70" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="71">
-          <cell r="B71">
-            <v>7</v>
-          </cell>
-          <cell r="F71">
-            <v>7</v>
-          </cell>
-          <cell r="G71" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="H71" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="72">
-          <cell r="B72">
-            <v>8</v>
-          </cell>
-          <cell r="F72">
-            <v>8</v>
-          </cell>
-          <cell r="G72" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="H72" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="73">
-          <cell r="B73">
-            <v>6</v>
-          </cell>
-          <cell r="F73">
-            <v>6</v>
-          </cell>
-          <cell r="G73" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="H73" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="74">
-          <cell r="B74">
-            <v>7</v>
-          </cell>
-          <cell r="F74">
-            <v>7</v>
-          </cell>
-          <cell r="G74" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="H74" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="75">
-          <cell r="B75">
-            <v>7</v>
-          </cell>
-          <cell r="F75">
-            <v>7</v>
-          </cell>
-          <cell r="G75" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="H75" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="76">
-          <cell r="B76">
-            <v>10</v>
-          </cell>
-          <cell r="F76">
-            <v>8</v>
-          </cell>
-          <cell r="G76" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="H76" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="77">
-          <cell r="B77">
-            <v>10</v>
-          </cell>
-          <cell r="F77">
-            <v>8</v>
-          </cell>
-          <cell r="G77" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="H77" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="78">
-          <cell r="B78">
-            <v>10</v>
-          </cell>
-          <cell r="F78">
-            <v>8</v>
-          </cell>
-          <cell r="G78" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="H78" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="79">
-          <cell r="B79">
-            <v>10</v>
-          </cell>
-          <cell r="F79">
-            <v>8</v>
-          </cell>
-          <cell r="G79" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="H79" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="80">
-          <cell r="B80">
-            <v>10</v>
-          </cell>
-          <cell r="F80">
-            <v>8</v>
-          </cell>
-          <cell r="G80" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="H80" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="81">
-          <cell r="B81">
-            <v>10</v>
-          </cell>
-          <cell r="F81">
-            <v>8</v>
-          </cell>
-          <cell r="G81" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="H81" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="82">
-          <cell r="B82">
-            <v>10</v>
-          </cell>
-          <cell r="F82">
-            <v>8</v>
-          </cell>
-          <cell r="G82" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="H82" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="83">
-          <cell r="B83">
-            <v>10</v>
-          </cell>
-          <cell r="F83">
-            <v>8</v>
-          </cell>
-          <cell r="G83" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="H83" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="84">
-          <cell r="B84">
-            <v>10</v>
-          </cell>
-          <cell r="F84">
-            <v>8</v>
-          </cell>
-          <cell r="G84" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="H84" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="85">
-          <cell r="B85">
-            <v>10</v>
-          </cell>
-          <cell r="F85">
-            <v>8</v>
-          </cell>
-          <cell r="G85" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="H85" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="86">
-          <cell r="B86">
-            <v>1</v>
-          </cell>
-          <cell r="F86">
-            <v>1</v>
-          </cell>
-          <cell r="G86" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="H86" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="87">
-          <cell r="B87">
-            <v>1</v>
-          </cell>
-          <cell r="F87">
-            <v>1</v>
-          </cell>
-          <cell r="G87" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="H87" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="88">
-          <cell r="B88">
-            <v>8</v>
-          </cell>
-          <cell r="F88">
-            <v>8</v>
-          </cell>
-          <cell r="G88" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="H88" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="89">
-          <cell r="B89">
-            <v>6</v>
-          </cell>
-          <cell r="F89">
-            <v>6</v>
-          </cell>
-          <cell r="G89" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="H89" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="90">
-          <cell r="B90">
-            <v>6</v>
-          </cell>
-          <cell r="F90">
-            <v>6</v>
-          </cell>
-          <cell r="G90" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="H90" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="91">
-          <cell r="B91">
-            <v>6</v>
-          </cell>
-          <cell r="F91">
-            <v>6</v>
-          </cell>
-          <cell r="G91" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="H91" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="92">
-          <cell r="B92">
-            <v>6</v>
-          </cell>
-          <cell r="F92">
-            <v>6</v>
-          </cell>
-          <cell r="G92" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="H92" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="93">
-          <cell r="B93">
-            <v>6</v>
-          </cell>
-          <cell r="F93">
-            <v>6</v>
-          </cell>
-          <cell r="G93" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="H93" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="94">
-          <cell r="B94">
-            <v>6</v>
-          </cell>
-          <cell r="F94">
-            <v>6</v>
-          </cell>
-          <cell r="G94" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="H94" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="95">
-          <cell r="B95">
-            <v>6</v>
-          </cell>
-          <cell r="F95">
-            <v>6</v>
-          </cell>
-          <cell r="G95" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="H95" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="96">
-          <cell r="B96">
-            <v>6</v>
-          </cell>
-          <cell r="F96">
-            <v>6</v>
-          </cell>
-          <cell r="G96" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="H96" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="97">
-          <cell r="B97">
-            <v>6</v>
-          </cell>
-          <cell r="F97">
-            <v>6</v>
-          </cell>
-          <cell r="G97" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="H97" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="98">
-          <cell r="B98">
-            <v>6</v>
-          </cell>
-          <cell r="F98">
-            <v>6</v>
-          </cell>
-          <cell r="G98" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="H98" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="99">
-          <cell r="B99">
-            <v>6</v>
-          </cell>
-          <cell r="F99" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="G99">
-            <v>6</v>
-          </cell>
-          <cell r="H99" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="100">
-          <cell r="B100">
-            <v>6</v>
-          </cell>
-          <cell r="F100" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="G100">
-            <v>6</v>
-          </cell>
-          <cell r="H100" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="101">
-          <cell r="B101">
-            <v>7</v>
-          </cell>
-          <cell r="F101" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="G101">
-            <v>7</v>
-          </cell>
-          <cell r="H101" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="102">
-          <cell r="B102">
-            <v>8</v>
-          </cell>
-          <cell r="F102" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="G102">
-            <v>8</v>
-          </cell>
-          <cell r="H102" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="103">
-          <cell r="B103">
-            <v>6</v>
-          </cell>
-          <cell r="F103" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="G103">
-            <v>6</v>
-          </cell>
-          <cell r="H103" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="104">
-          <cell r="B104">
-            <v>9</v>
-          </cell>
-          <cell r="F104" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="G104">
-            <v>5</v>
-          </cell>
-          <cell r="H104" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="105">
-          <cell r="B105">
-            <v>18</v>
-          </cell>
-          <cell r="F105" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="G105">
-            <v>18</v>
-          </cell>
-          <cell r="H105" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="106">
-          <cell r="B106">
-            <v>12</v>
-          </cell>
-          <cell r="F106" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="G106">
-            <v>6</v>
-          </cell>
-          <cell r="H106" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="107">
-          <cell r="B107">
-            <v>12</v>
-          </cell>
-          <cell r="F107" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="G107">
-            <v>6</v>
-          </cell>
-          <cell r="H107" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="108">
-          <cell r="B108">
-            <v>12</v>
-          </cell>
-          <cell r="F108" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="G108">
-            <v>6</v>
-          </cell>
-          <cell r="H108" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="109">
-          <cell r="B109">
-            <v>12</v>
-          </cell>
-          <cell r="F109" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="G109">
-            <v>6</v>
-          </cell>
-          <cell r="H109" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="110">
-          <cell r="B110">
-            <v>12</v>
-          </cell>
-          <cell r="F110" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="G110">
-            <v>6</v>
-          </cell>
-          <cell r="H110" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="111">
-          <cell r="B111">
-            <v>12</v>
-          </cell>
-          <cell r="F111" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="G111">
-            <v>6</v>
-          </cell>
-          <cell r="H111" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="112">
-          <cell r="B112">
-            <v>12</v>
-          </cell>
-          <cell r="F112" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="G112">
-            <v>6</v>
-          </cell>
-          <cell r="H112" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="113">
-          <cell r="B113">
-            <v>12</v>
-          </cell>
-          <cell r="F113" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="G113">
-            <v>6</v>
-          </cell>
-          <cell r="H113" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="114">
-          <cell r="B114">
-            <v>12</v>
-          </cell>
-          <cell r="F114" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="G114">
-            <v>6</v>
-          </cell>
-          <cell r="H114" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="115">
-          <cell r="B115">
-            <v>12</v>
-          </cell>
-          <cell r="F115" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="G115">
-            <v>6</v>
-          </cell>
-          <cell r="H115" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="116">
-          <cell r="B116">
-            <v>12</v>
-          </cell>
-          <cell r="F116" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="G116" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="H116">
-            <v>6</v>
-          </cell>
-        </row>
-        <row r="117">
-          <cell r="B117">
-            <v>14</v>
-          </cell>
-          <cell r="F117" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="G117" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="H117">
-            <v>14</v>
-          </cell>
-        </row>
-        <row r="118">
-          <cell r="B118">
-            <v>19</v>
-          </cell>
-          <cell r="F118" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="G118" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="H118">
-            <v>16</v>
-          </cell>
-        </row>
-        <row r="119">
-          <cell r="B119">
-            <v>16</v>
-          </cell>
-          <cell r="F119" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="G119" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="H119">
-            <v>16</v>
-          </cell>
-        </row>
-        <row r="120">
-          <cell r="B120">
-            <v>21</v>
-          </cell>
-          <cell r="F120" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="G120" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="H120">
-            <v>19</v>
-          </cell>
-        </row>
-        <row r="121">
-          <cell r="B121">
-            <v>14</v>
-          </cell>
-          <cell r="F121" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="G121" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="H121">
-            <v>14</v>
-          </cell>
-        </row>
-        <row r="122">
-          <cell r="B122">
-            <v>23</v>
-          </cell>
-          <cell r="F122" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="G122" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="H122">
-            <v>17</v>
-          </cell>
-        </row>
-        <row r="123">
-          <cell r="B123">
-            <v>21</v>
-          </cell>
-          <cell r="F123" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="G123" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="H123">
-            <v>16</v>
-          </cell>
-        </row>
-        <row r="124">
-          <cell r="B124">
-            <v>26</v>
-          </cell>
-          <cell r="F124" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="G124" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="H124">
-            <v>25</v>
-          </cell>
-        </row>
-        <row r="125">
-          <cell r="B125">
-            <v>28</v>
-          </cell>
-          <cell r="F125" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="G125" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="H125">
-            <v>25</v>
-          </cell>
-        </row>
-        <row r="126">
-          <cell r="B126">
-            <v>28</v>
-          </cell>
-          <cell r="F126" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="G126" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="H126">
-            <v>25</v>
-          </cell>
-        </row>
-        <row r="127">
-          <cell r="B127">
-            <v>28</v>
-          </cell>
-          <cell r="F127" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="G127" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="H127">
-            <v>25</v>
-          </cell>
-        </row>
-        <row r="128">
-          <cell r="B128">
-            <v>28</v>
-          </cell>
-          <cell r="F128" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="G128" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="H128">
-            <v>25</v>
-          </cell>
-        </row>
-        <row r="129">
-          <cell r="B129">
-            <v>28</v>
-          </cell>
-          <cell r="F129" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="G129" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="H129">
-            <v>25</v>
-          </cell>
-        </row>
-        <row r="130">
-          <cell r="B130">
-            <v>28</v>
-          </cell>
-          <cell r="F130" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="G130" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="H130">
-            <v>25</v>
-          </cell>
-        </row>
-        <row r="131">
-          <cell r="B131">
-            <v>17</v>
-          </cell>
-          <cell r="F131" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="G131" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="H131">
-            <v>7</v>
-          </cell>
-        </row>
-        <row r="132">
-          <cell r="B132">
-            <v>21</v>
-          </cell>
-          <cell r="F132" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="G132" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="H132">
-            <v>21</v>
-          </cell>
-        </row>
-        <row r="133">
-          <cell r="B133">
-            <v>15</v>
-          </cell>
-          <cell r="F133" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="G133" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="H133">
-            <v>7</v>
-          </cell>
-        </row>
-        <row r="134">
-          <cell r="B134">
-            <v>15</v>
-          </cell>
-          <cell r="F134" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="G134" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="H134">
-            <v>7</v>
-          </cell>
-        </row>
-        <row r="135">
-          <cell r="B135">
-            <v>15</v>
-          </cell>
-          <cell r="F135" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="G135" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="H135">
-            <v>7</v>
-          </cell>
-        </row>
-        <row r="136">
-          <cell r="B136">
-            <v>15</v>
-          </cell>
-          <cell r="F136" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="G136">
-            <v>7</v>
-          </cell>
-          <cell r="H136" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="137">
-          <cell r="B137">
-            <v>15</v>
-          </cell>
-          <cell r="F137" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="G137">
-            <v>7</v>
-          </cell>
-          <cell r="H137" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="138">
-          <cell r="B138">
-            <v>15</v>
-          </cell>
-          <cell r="F138" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="G138">
-            <v>7</v>
-          </cell>
-          <cell r="H138" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="139">
-          <cell r="B139">
-            <v>15</v>
-          </cell>
-          <cell r="F139" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="G139">
-            <v>7</v>
-          </cell>
-          <cell r="H139" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="140">
-          <cell r="B140">
-            <v>15</v>
-          </cell>
-          <cell r="F140" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="G140">
-            <v>7</v>
-          </cell>
-          <cell r="H140" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="141">
-          <cell r="B141">
-            <v>15</v>
-          </cell>
-          <cell r="F141" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="G141">
-            <v>7</v>
-          </cell>
-          <cell r="H141" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="142">
-          <cell r="B142">
-            <v>15</v>
-          </cell>
-          <cell r="F142" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="G142">
-            <v>7</v>
-          </cell>
-          <cell r="H142" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="143">
-          <cell r="B143">
-            <v>15</v>
-          </cell>
-          <cell r="F143" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="G143">
-            <v>7</v>
-          </cell>
-          <cell r="H143" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="144">
-          <cell r="B144">
-            <v>15</v>
-          </cell>
-          <cell r="F144" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="G144">
-            <v>7</v>
-          </cell>
-          <cell r="H144" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="145">
-          <cell r="B145">
-            <v>15</v>
-          </cell>
-          <cell r="F145" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="G145">
-            <v>7</v>
-          </cell>
-          <cell r="H145" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="146">
-          <cell r="B146">
-            <v>15</v>
-          </cell>
-          <cell r="F146" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="G146">
-            <v>7</v>
-          </cell>
-          <cell r="H146" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="147">
-          <cell r="B147">
-            <v>17</v>
-          </cell>
-          <cell r="F147" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="G147">
-            <v>13</v>
-          </cell>
-          <cell r="H147" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="148">
-          <cell r="B148">
-            <v>12</v>
-          </cell>
-          <cell r="F148" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="G148">
-            <v>8</v>
-          </cell>
-          <cell r="H148" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="149">
-          <cell r="B149">
-            <v>16</v>
-          </cell>
-          <cell r="F149" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="G149">
-            <v>7</v>
-          </cell>
-          <cell r="H149" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="150">
-          <cell r="B150">
-            <v>10</v>
-          </cell>
-          <cell r="F150" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="G150">
-            <v>6</v>
-          </cell>
-          <cell r="H150" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="151">
-          <cell r="B151">
-            <v>12</v>
-          </cell>
-          <cell r="F151" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="G151">
-            <v>7</v>
-          </cell>
-          <cell r="H151" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="152">
-          <cell r="B152">
-            <v>13</v>
-          </cell>
-          <cell r="F152" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="G152">
-            <v>8</v>
-          </cell>
-          <cell r="H152" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="153">
-          <cell r="B153">
-            <v>13</v>
-          </cell>
-          <cell r="F153" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="G153">
-            <v>7</v>
-          </cell>
-          <cell r="H153" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="154">
-          <cell r="B154">
-            <v>16</v>
-          </cell>
-          <cell r="F154" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="G154">
-            <v>9</v>
-          </cell>
-          <cell r="H154" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="155">
-          <cell r="B155">
-            <v>11</v>
-          </cell>
-          <cell r="F155" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="G155">
-            <v>6</v>
-          </cell>
-          <cell r="H155" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="156">
-          <cell r="B156">
-            <v>11</v>
-          </cell>
-          <cell r="F156" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="G156">
-            <v>6</v>
-          </cell>
-          <cell r="H156" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="157">
-          <cell r="B157">
-            <v>11</v>
-          </cell>
-          <cell r="F157" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="G157">
-            <v>6</v>
-          </cell>
-          <cell r="H157" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="158">
-          <cell r="B158">
-            <v>11</v>
-          </cell>
-          <cell r="F158" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="G158">
-            <v>6</v>
-          </cell>
-          <cell r="H158" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="159">
-          <cell r="B159">
-            <v>11</v>
-          </cell>
-          <cell r="F159" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="G159">
-            <v>6</v>
-          </cell>
-          <cell r="H159" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="160">
-          <cell r="B160">
-            <v>11</v>
-          </cell>
-          <cell r="F160" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="G160">
-            <v>6</v>
-          </cell>
-          <cell r="H160" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="161">
-          <cell r="B161">
-            <v>11</v>
-          </cell>
-          <cell r="F161" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="G161">
-            <v>6</v>
-          </cell>
-          <cell r="H161" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="162">
-          <cell r="B162">
-            <v>15</v>
-          </cell>
-          <cell r="F162" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="G162">
-            <v>7</v>
-          </cell>
-          <cell r="H162" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="163">
-          <cell r="B163">
-            <v>10</v>
-          </cell>
-          <cell r="F163">
-            <v>5</v>
-          </cell>
-          <cell r="G163" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="H163" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="164">
-          <cell r="B164">
-            <v>19</v>
-          </cell>
-          <cell r="F164">
-            <v>8</v>
-          </cell>
-          <cell r="G164" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="H164" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="165">
-          <cell r="B165">
-            <v>7</v>
-          </cell>
-          <cell r="F165">
-            <v>6</v>
-          </cell>
-          <cell r="G165" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="H165" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="166">
-          <cell r="B166">
-            <v>7</v>
-          </cell>
-          <cell r="F166">
-            <v>6</v>
-          </cell>
-          <cell r="G166" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="H166" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="167">
-          <cell r="B167">
-            <v>7</v>
-          </cell>
-          <cell r="F167">
-            <v>6</v>
-          </cell>
-          <cell r="G167" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="H167" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="168">
-          <cell r="B168">
-            <v>7</v>
-          </cell>
-          <cell r="F168">
-            <v>6</v>
-          </cell>
-          <cell r="G168" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="H168" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="169">
-          <cell r="B169">
-            <v>7</v>
-          </cell>
-          <cell r="F169">
-            <v>6</v>
-          </cell>
-          <cell r="G169" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="H169" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="170">
-          <cell r="B170">
-            <v>7</v>
-          </cell>
-          <cell r="F170">
-            <v>6</v>
-          </cell>
-          <cell r="G170" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="H170" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="171">
-          <cell r="B171">
-            <v>7</v>
-          </cell>
-          <cell r="F171">
-            <v>6</v>
-          </cell>
-          <cell r="G171" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="H171" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="172">
-          <cell r="B172">
-            <v>7</v>
-          </cell>
-          <cell r="F172">
-            <v>6</v>
-          </cell>
-          <cell r="G172" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="H172" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="173">
-          <cell r="B173">
-            <v>7</v>
-          </cell>
-          <cell r="F173">
-            <v>6</v>
-          </cell>
-          <cell r="G173" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="H173" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="174">
-          <cell r="B174">
-            <v>7</v>
-          </cell>
-          <cell r="F174">
-            <v>6</v>
-          </cell>
-          <cell r="G174" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="H174" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="175">
-          <cell r="B175">
-            <v>7</v>
-          </cell>
-          <cell r="F175">
-            <v>6</v>
-          </cell>
-          <cell r="G175" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="H175" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="176">
-          <cell r="B176">
-            <v>7</v>
-          </cell>
-          <cell r="F176">
-            <v>6</v>
-          </cell>
-          <cell r="G176" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="H176" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="177">
-          <cell r="B177">
-            <v>7</v>
-          </cell>
-          <cell r="F177">
-            <v>6</v>
-          </cell>
-          <cell r="G177" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="H177" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="178">
-          <cell r="B178">
-            <v>0</v>
-          </cell>
-          <cell r="F178">
-            <v>0</v>
-          </cell>
-          <cell r="G178" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="H178" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="179">
-          <cell r="B179">
-            <v>0</v>
-          </cell>
-          <cell r="F179">
-            <v>0</v>
-          </cell>
-          <cell r="G179" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="H179" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="180">
-          <cell r="B180">
-            <v>0</v>
-          </cell>
-          <cell r="F180">
-            <v>0</v>
-          </cell>
-          <cell r="G180" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="H180" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="181">
-          <cell r="B181">
-            <v>0</v>
-          </cell>
-          <cell r="F181">
-            <v>0</v>
-          </cell>
-          <cell r="G181" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="H181" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="182">
-          <cell r="B182">
-            <v>0</v>
-          </cell>
-          <cell r="F182">
-            <v>0</v>
-          </cell>
-          <cell r="G182" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="H182" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="183">
-          <cell r="B183">
-            <v>0</v>
-          </cell>
-          <cell r="F183" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="G183">
-            <v>0</v>
-          </cell>
-          <cell r="H183" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="184">
-          <cell r="B184">
-            <v>0</v>
-          </cell>
-          <cell r="F184" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="G184">
-            <v>0</v>
-          </cell>
-          <cell r="H184" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="185">
-          <cell r="B185">
-            <v>0</v>
-          </cell>
-          <cell r="F185" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="G185">
-            <v>0</v>
-          </cell>
-          <cell r="H185" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="186">
-          <cell r="B186">
-            <v>0</v>
-          </cell>
-          <cell r="F186" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="G186">
-            <v>0</v>
-          </cell>
-          <cell r="H186" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="187">
-          <cell r="B187">
-            <v>0</v>
-          </cell>
-          <cell r="F187" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="G187">
-            <v>0</v>
-          </cell>
-          <cell r="H187" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="188">
-          <cell r="B188">
-            <v>0</v>
-          </cell>
-          <cell r="F188" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="G188">
-            <v>0</v>
-          </cell>
-          <cell r="H188" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="189">
-          <cell r="B189">
-            <v>0</v>
-          </cell>
-          <cell r="F189" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="G189">
-            <v>0</v>
-          </cell>
-          <cell r="H189" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="190">
-          <cell r="B190">
-            <v>0</v>
-          </cell>
-          <cell r="F190" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="G190">
-            <v>0</v>
-          </cell>
-          <cell r="H190" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="191">
-          <cell r="B191">
-            <v>0</v>
-          </cell>
-          <cell r="F191" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="G191">
-            <v>0</v>
-          </cell>
-          <cell r="H191" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="192">
-          <cell r="B192">
-            <v>5</v>
-          </cell>
-          <cell r="F192" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="G192">
-            <v>4</v>
-          </cell>
-          <cell r="H192" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="193">
-          <cell r="B193">
-            <v>12</v>
-          </cell>
-          <cell r="F193" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="G193">
-            <v>6</v>
-          </cell>
-          <cell r="H193" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="194">
-          <cell r="B194">
-            <v>13</v>
-          </cell>
-          <cell r="F194" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="G194">
-            <v>7</v>
-          </cell>
-          <cell r="H194" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="195">
-          <cell r="B195">
-            <v>11</v>
-          </cell>
-          <cell r="F195" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="G195">
-            <v>7</v>
-          </cell>
-          <cell r="H195" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="196">
-          <cell r="B196">
-            <v>10</v>
-          </cell>
-          <cell r="F196" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="G196">
-            <v>5</v>
-          </cell>
-          <cell r="H196" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="197">
-          <cell r="B197">
-            <v>11</v>
-          </cell>
-          <cell r="F197" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="G197">
-            <v>6</v>
-          </cell>
-          <cell r="H197" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="198">
-          <cell r="B198">
-            <v>11</v>
-          </cell>
-          <cell r="F198" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="G198">
-            <v>6</v>
-          </cell>
-          <cell r="H198" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="199">
-          <cell r="B199">
-            <v>11</v>
-          </cell>
-          <cell r="F199" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="G199">
-            <v>6</v>
-          </cell>
-          <cell r="H199" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="200">
-          <cell r="B200">
-            <v>11</v>
-          </cell>
-          <cell r="F200" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="G200">
-            <v>6</v>
-          </cell>
-          <cell r="H200" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="201">
-          <cell r="B201">
-            <v>11</v>
-          </cell>
-          <cell r="F201" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="G201">
-            <v>6</v>
-          </cell>
-          <cell r="H201" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="202">
-          <cell r="B202">
-            <v>11</v>
-          </cell>
-          <cell r="F202" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="G202">
-            <v>6</v>
-          </cell>
-          <cell r="H202" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="203">
-          <cell r="B203">
-            <v>11</v>
-          </cell>
-          <cell r="F203" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="G203">
-            <v>6</v>
-          </cell>
-          <cell r="H203" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="204">
-          <cell r="B204">
-            <v>11</v>
-          </cell>
-          <cell r="F204" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="G204">
-            <v>6</v>
-          </cell>
-          <cell r="H204" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="205">
-          <cell r="B205">
-            <v>11</v>
-          </cell>
-          <cell r="F205" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="G205">
-            <v>6</v>
-          </cell>
-          <cell r="H205" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="206">
-          <cell r="B206">
-            <v>11</v>
-          </cell>
-          <cell r="F206" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="G206">
-            <v>6</v>
-          </cell>
-          <cell r="H206" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="207">
-          <cell r="B207">
-            <v>11</v>
-          </cell>
-          <cell r="F207" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="G207">
-            <v>6</v>
-          </cell>
-          <cell r="H207" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="208">
-          <cell r="B208">
-            <v>8</v>
-          </cell>
-          <cell r="F208" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="G208">
-            <v>5</v>
-          </cell>
-          <cell r="H208" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="209">
-          <cell r="B209">
-            <v>13</v>
-          </cell>
-          <cell r="F209" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="G209">
-            <v>7</v>
-          </cell>
-          <cell r="H209" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="210">
-          <cell r="B210">
-            <v>11</v>
-          </cell>
-          <cell r="F210" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="G210">
-            <v>6</v>
-          </cell>
-          <cell r="H210" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="211">
-          <cell r="B211">
-            <v>11</v>
-          </cell>
-          <cell r="F211" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="G211">
-            <v>6</v>
-          </cell>
-          <cell r="H211" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="212">
-          <cell r="B212">
-            <v>10</v>
-          </cell>
-          <cell r="F212" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="G212">
-            <v>5</v>
-          </cell>
-          <cell r="H212" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="213">
-          <cell r="B213">
-            <v>10</v>
-          </cell>
-          <cell r="F213" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="G213">
-            <v>5</v>
-          </cell>
-          <cell r="H213" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="214">
-          <cell r="B214">
-            <v>10</v>
-          </cell>
-          <cell r="F214" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="G214">
-            <v>5</v>
-          </cell>
-          <cell r="H214" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="215">
-          <cell r="B215">
-            <v>10</v>
-          </cell>
-          <cell r="F215" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="G215">
-            <v>5</v>
-          </cell>
-          <cell r="H215" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="216">
-          <cell r="B216">
-            <v>10</v>
-          </cell>
-          <cell r="F216" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="G216">
-            <v>5</v>
-          </cell>
-          <cell r="H216" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="217">
-          <cell r="B217">
-            <v>10</v>
-          </cell>
-          <cell r="F217" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="G217">
-            <v>5</v>
-          </cell>
-          <cell r="H217" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="218">
-          <cell r="B218">
-            <v>10</v>
-          </cell>
-          <cell r="F218" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="G218">
-            <v>5</v>
-          </cell>
-          <cell r="H218" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="219">
-          <cell r="B219">
-            <v>10</v>
-          </cell>
-          <cell r="F219" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="G219">
-            <v>5</v>
-          </cell>
-          <cell r="H219" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="220">
-          <cell r="B220">
-            <v>10</v>
-          </cell>
-          <cell r="F220" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="G220">
-            <v>5</v>
-          </cell>
-          <cell r="H220" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="221">
-          <cell r="B221">
-            <v>10</v>
-          </cell>
-          <cell r="F221" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="G221">
-            <v>5</v>
-          </cell>
-          <cell r="H221" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="222">
-          <cell r="B222">
-            <v>10</v>
-          </cell>
-          <cell r="F222" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="G222">
-            <v>5</v>
-          </cell>
-          <cell r="H222" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="223">
-          <cell r="B223">
-            <v>21</v>
-          </cell>
-          <cell r="F223">
-            <v>21</v>
-          </cell>
-          <cell r="G223" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="H223" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="224">
-          <cell r="B224">
-            <v>15</v>
-          </cell>
-          <cell r="F224">
-            <v>15</v>
-          </cell>
-          <cell r="G224" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="H224" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="225">
-          <cell r="B225">
-            <v>12</v>
-          </cell>
-          <cell r="F225">
-            <v>12</v>
-          </cell>
-          <cell r="G225" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="H225" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="226">
-          <cell r="B226">
-            <v>12</v>
-          </cell>
-          <cell r="F226">
-            <v>12</v>
-          </cell>
-          <cell r="G226" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="H226" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="227">
-          <cell r="B227">
-            <v>12</v>
-          </cell>
-          <cell r="F227">
-            <v>12</v>
-          </cell>
-          <cell r="G227" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="H227" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="228">
-          <cell r="B228">
-            <v>12</v>
-          </cell>
-          <cell r="F228">
-            <v>12</v>
-          </cell>
-          <cell r="G228" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="H228" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="229">
-          <cell r="B229">
-            <v>12</v>
-          </cell>
-          <cell r="F229">
-            <v>12</v>
-          </cell>
-          <cell r="G229" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="H229" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="230">
-          <cell r="B230">
-            <v>12</v>
-          </cell>
-          <cell r="F230">
-            <v>12</v>
-          </cell>
-          <cell r="G230" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="H230" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="231">
-          <cell r="B231">
-            <v>12</v>
-          </cell>
-          <cell r="F231">
-            <v>12</v>
-          </cell>
-          <cell r="G231" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="H231" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="232">
-          <cell r="B232">
-            <v>12</v>
-          </cell>
-          <cell r="F232">
-            <v>12</v>
-          </cell>
-          <cell r="G232" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="H232" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="233">
-          <cell r="B233">
-            <v>12</v>
-          </cell>
-          <cell r="F233">
-            <v>12</v>
-          </cell>
-          <cell r="G233" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="H233" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="234">
-          <cell r="B234">
-            <v>12</v>
-          </cell>
-          <cell r="F234">
-            <v>12</v>
-          </cell>
-          <cell r="G234" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="H234" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="235">
-          <cell r="B235">
-            <v>12</v>
-          </cell>
-          <cell r="F235">
-            <v>12</v>
-          </cell>
-          <cell r="G235" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="H235" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="236">
-          <cell r="B236">
-            <v>13</v>
-          </cell>
-          <cell r="F236">
-            <v>13</v>
-          </cell>
-          <cell r="G236" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="H236" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="237">
-          <cell r="B237">
-            <v>13</v>
-          </cell>
-          <cell r="F237">
-            <v>13</v>
-          </cell>
-          <cell r="G237" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="H237" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="238">
-          <cell r="B238">
-            <v>13</v>
-          </cell>
-          <cell r="F238">
-            <v>13</v>
-          </cell>
-          <cell r="G238" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="H238" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="239">
-          <cell r="B239">
-            <v>13</v>
-          </cell>
-          <cell r="F239">
-            <v>13</v>
-          </cell>
-          <cell r="G239" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="H239" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="240">
-          <cell r="B240">
-            <v>13</v>
-          </cell>
-          <cell r="F240">
-            <v>13</v>
-          </cell>
-          <cell r="G240" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="H240" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="241">
-          <cell r="B241">
-            <v>17</v>
-          </cell>
-          <cell r="F241">
-            <v>15</v>
-          </cell>
-          <cell r="G241" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="H241" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="242">
-          <cell r="B242">
-            <v>13</v>
-          </cell>
-          <cell r="F242">
-            <v>13</v>
-          </cell>
-          <cell r="G242" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="H242" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="243">
-          <cell r="B243">
-            <v>13</v>
-          </cell>
-          <cell r="F243">
-            <v>13</v>
-          </cell>
-          <cell r="G243" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="H243" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="244">
-          <cell r="B244">
-            <v>13</v>
-          </cell>
-          <cell r="F244">
-            <v>13</v>
-          </cell>
-          <cell r="G244" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="H244" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="245">
-          <cell r="B245">
-            <v>13</v>
-          </cell>
-          <cell r="F245">
-            <v>13</v>
-          </cell>
-          <cell r="G245" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="H245" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="246">
-          <cell r="B246">
-            <v>13</v>
-          </cell>
-          <cell r="F246">
-            <v>13</v>
-          </cell>
-          <cell r="G246" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="H246" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="247">
-          <cell r="B247">
-            <v>13</v>
-          </cell>
-          <cell r="F247">
-            <v>13</v>
-          </cell>
-          <cell r="G247" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="H247" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="248">
-          <cell r="B248">
-            <v>13</v>
-          </cell>
-          <cell r="F248">
-            <v>13</v>
-          </cell>
-          <cell r="G248" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="H248" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="249">
-          <cell r="B249">
-            <v>13</v>
-          </cell>
-          <cell r="F249">
-            <v>13</v>
-          </cell>
-          <cell r="G249" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="H249" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="250">
-          <cell r="B250">
-            <v>13</v>
-          </cell>
-          <cell r="F250">
-            <v>13</v>
-          </cell>
-          <cell r="G250" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="H250" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="251">
-          <cell r="B251">
-            <v>16</v>
-          </cell>
-          <cell r="F251">
-            <v>16</v>
-          </cell>
-          <cell r="G251" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="H251" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="252">
-          <cell r="B252">
-            <v>22</v>
-          </cell>
-          <cell r="F252">
-            <v>21</v>
-          </cell>
-          <cell r="G252" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="H252" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="253">
-          <cell r="B253">
-            <v>15</v>
-          </cell>
-          <cell r="F253">
-            <v>13</v>
-          </cell>
-          <cell r="G253" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="H253" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="254">
-          <cell r="B254">
-            <v>14</v>
-          </cell>
-          <cell r="F254">
-            <v>13</v>
-          </cell>
-          <cell r="G254" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="H254" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="255">
-          <cell r="B255">
-            <v>14</v>
-          </cell>
-          <cell r="F255">
-            <v>13</v>
-          </cell>
-          <cell r="G255" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="H255" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="256">
-          <cell r="B256">
-            <v>12</v>
-          </cell>
-          <cell r="F256">
-            <v>11</v>
-          </cell>
-          <cell r="G256" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="H256" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="257">
-          <cell r="B257">
-            <v>17</v>
-          </cell>
-          <cell r="F257">
-            <v>16</v>
-          </cell>
-          <cell r="G257" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="H257" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="258">
-          <cell r="B258">
-            <v>16</v>
-          </cell>
-          <cell r="F258">
-            <v>15</v>
-          </cell>
-          <cell r="G258" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="H258" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="259">
-          <cell r="B259">
-            <v>16</v>
-          </cell>
-          <cell r="F259">
-            <v>15</v>
-          </cell>
-          <cell r="G259" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="H259" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="260">
-          <cell r="B260">
-            <v>16</v>
-          </cell>
-          <cell r="F260">
-            <v>15</v>
-          </cell>
-          <cell r="G260" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="H260" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="261">
-          <cell r="B261">
-            <v>3</v>
-          </cell>
-          <cell r="F261">
-            <v>1</v>
-          </cell>
-          <cell r="G261" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="H261" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="262">
-          <cell r="B262">
-            <v>11</v>
-          </cell>
-          <cell r="F262">
-            <v>11</v>
-          </cell>
-          <cell r="G262" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="H262" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="263">
-          <cell r="B263">
-            <v>11</v>
-          </cell>
-          <cell r="F263">
-            <v>11</v>
-          </cell>
-          <cell r="G263" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="H263" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="264">
-          <cell r="B264">
-            <v>11</v>
-          </cell>
-          <cell r="F264">
-            <v>11</v>
-          </cell>
-          <cell r="G264" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="H264" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="265">
-          <cell r="B265">
-            <v>11</v>
-          </cell>
-          <cell r="F265">
-            <v>11</v>
-          </cell>
-          <cell r="G265" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="H265" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="266">
-          <cell r="B266">
-            <v>11</v>
-          </cell>
-          <cell r="F266">
-            <v>11</v>
-          </cell>
-          <cell r="G266" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="H266" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="267">
-          <cell r="B267">
-            <v>11</v>
-          </cell>
-          <cell r="F267">
-            <v>11</v>
-          </cell>
-          <cell r="G267" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="H267" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="268">
-          <cell r="B268">
-            <v>11</v>
-          </cell>
-          <cell r="F268">
-            <v>11</v>
-          </cell>
-          <cell r="G268" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="H268" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="269">
-          <cell r="B269">
-            <v>11</v>
-          </cell>
-          <cell r="F269">
-            <v>11</v>
-          </cell>
-          <cell r="G269" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="H269" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="270">
-          <cell r="B270">
-            <v>11</v>
-          </cell>
-          <cell r="F270">
-            <v>11</v>
-          </cell>
-          <cell r="G270" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="H270" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="271">
-          <cell r="B271">
-            <v>11</v>
-          </cell>
-          <cell r="F271">
-            <v>11</v>
-          </cell>
-          <cell r="G271" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="H271" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="272">
-          <cell r="B272">
-            <v>11</v>
-          </cell>
-          <cell r="F272">
-            <v>11</v>
-          </cell>
-          <cell r="G272" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="H272" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="273">
-          <cell r="B273">
-            <v>11</v>
-          </cell>
-          <cell r="F273">
-            <v>11</v>
-          </cell>
-          <cell r="G273" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="H273" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="274">
-          <cell r="B274">
-            <v>11</v>
-          </cell>
-          <cell r="F274">
-            <v>11</v>
-          </cell>
-          <cell r="G274" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="H274" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="275">
-          <cell r="B275">
-            <v>15</v>
-          </cell>
-          <cell r="F275">
-            <v>15</v>
-          </cell>
-          <cell r="G275" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="H275" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="276">
-          <cell r="B276">
-            <v>14</v>
-          </cell>
-          <cell r="F276">
-            <v>14</v>
-          </cell>
-          <cell r="G276" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="H276" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="277">
-          <cell r="B277">
-            <v>18</v>
-          </cell>
-          <cell r="F277">
-            <v>18</v>
-          </cell>
-          <cell r="G277" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="H277" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="278">
-          <cell r="B278">
-            <v>16</v>
-          </cell>
-          <cell r="F278">
-            <v>15</v>
-          </cell>
-          <cell r="G278" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="H278" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="279">
-          <cell r="B279">
-            <v>13</v>
-          </cell>
-          <cell r="F279">
-            <v>13</v>
-          </cell>
-          <cell r="G279" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="H279" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="280">
-          <cell r="B280">
-            <v>14</v>
-          </cell>
-          <cell r="F280">
-            <v>14</v>
-          </cell>
-          <cell r="G280" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="H280" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="281">
-          <cell r="B281">
-            <v>16</v>
-          </cell>
-          <cell r="F281">
-            <v>14</v>
-          </cell>
-          <cell r="G281" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="H281" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="282">
-          <cell r="B282">
-            <v>14</v>
-          </cell>
-          <cell r="F282">
-            <v>13</v>
-          </cell>
-          <cell r="G282" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="H282" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="283">
-          <cell r="B283">
-            <v>14</v>
-          </cell>
-          <cell r="F283">
-            <v>13</v>
-          </cell>
-          <cell r="G283" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="H283" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="284">
-          <cell r="B284">
-            <v>14</v>
-          </cell>
-          <cell r="F284">
-            <v>13</v>
-          </cell>
-          <cell r="G284" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="H284" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="285">
-          <cell r="B285">
-            <v>14</v>
-          </cell>
-          <cell r="F285">
-            <v>13</v>
-          </cell>
-          <cell r="G285" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="H285" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="286">
-          <cell r="B286">
-            <v>14</v>
-          </cell>
-          <cell r="F286">
-            <v>13</v>
-          </cell>
-          <cell r="G286" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="H286" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="287">
-          <cell r="B287">
-            <v>14</v>
-          </cell>
-          <cell r="F287" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="G287">
-            <v>13</v>
-          </cell>
-          <cell r="H287" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="288">
-          <cell r="B288">
-            <v>14</v>
-          </cell>
-          <cell r="F288" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="G288">
-            <v>13</v>
-          </cell>
-          <cell r="H288" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="289">
-          <cell r="B289">
-            <v>14</v>
-          </cell>
-          <cell r="F289" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="G289">
-            <v>14</v>
-          </cell>
-          <cell r="H289" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="290">
-          <cell r="B290">
-            <v>23</v>
-          </cell>
-          <cell r="F290" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="G290">
-            <v>14</v>
-          </cell>
-          <cell r="H290" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="291">
-          <cell r="B291">
-            <v>25</v>
-          </cell>
-          <cell r="F291" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="G291">
-            <v>13</v>
-          </cell>
-          <cell r="H291" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="292">
-          <cell r="B292">
-            <v>25</v>
-          </cell>
-          <cell r="F292" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="G292">
-            <v>14</v>
-          </cell>
-          <cell r="H292" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="293">
-          <cell r="B293">
-            <v>25</v>
-          </cell>
-          <cell r="F293" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="G293">
-            <v>14</v>
-          </cell>
-          <cell r="H293" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="294">
-          <cell r="B294">
-            <v>25</v>
-          </cell>
-          <cell r="F294" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="G294">
-            <v>14</v>
-          </cell>
-          <cell r="H294" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="295">
-          <cell r="B295">
-            <v>25</v>
-          </cell>
-          <cell r="F295" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="G295">
-            <v>14</v>
-          </cell>
-          <cell r="H295" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="296">
-          <cell r="B296">
-            <v>25</v>
-          </cell>
-          <cell r="F296" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="G296">
-            <v>14</v>
-          </cell>
-          <cell r="H296" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="297">
-          <cell r="B297">
-            <v>25</v>
-          </cell>
-          <cell r="F297" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="G297">
-            <v>14</v>
-          </cell>
-          <cell r="H297" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="298">
-          <cell r="B298">
-            <v>25</v>
-          </cell>
-          <cell r="F298" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="G298">
-            <v>14</v>
-          </cell>
-          <cell r="H298" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="299">
-          <cell r="B299">
-            <v>25</v>
-          </cell>
-          <cell r="F299" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="G299">
-            <v>14</v>
-          </cell>
-          <cell r="H299" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="300">
-          <cell r="B300">
-            <v>25</v>
-          </cell>
-          <cell r="F300" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="G300">
-            <v>14</v>
-          </cell>
-          <cell r="H300" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="301">
-          <cell r="B301">
-            <v>25</v>
-          </cell>
-          <cell r="F301" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="G301">
-            <v>14</v>
-          </cell>
-          <cell r="H301" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="302">
-          <cell r="B302">
-            <v>25</v>
-          </cell>
-          <cell r="F302" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="G302">
-            <v>14</v>
-          </cell>
-          <cell r="H302" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="303">
-          <cell r="B303">
-            <v>25</v>
-          </cell>
-          <cell r="F303" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="G303">
-            <v>14</v>
-          </cell>
-          <cell r="H303" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="304">
-          <cell r="B304">
-            <v>25</v>
-          </cell>
-          <cell r="F304" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="G304">
-            <v>14</v>
-          </cell>
-          <cell r="H304" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="305">
-          <cell r="B305">
-            <v>23</v>
-          </cell>
-          <cell r="F305" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="G305">
-            <v>13</v>
-          </cell>
-          <cell r="H305" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="306">
-          <cell r="B306">
-            <v>23</v>
-          </cell>
-          <cell r="F306" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="G306">
-            <v>14</v>
-          </cell>
-          <cell r="H306" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="307">
-          <cell r="B307">
-            <v>29</v>
-          </cell>
-          <cell r="F307" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="G307">
-            <v>15</v>
-          </cell>
-          <cell r="H307" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="308">
-          <cell r="B308">
-            <v>23</v>
-          </cell>
-          <cell r="F308" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="G308">
-            <v>13</v>
-          </cell>
-          <cell r="H308" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="309">
-          <cell r="B309">
-            <v>31</v>
-          </cell>
-          <cell r="F309" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="G309">
-            <v>16</v>
-          </cell>
-          <cell r="H309" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="310">
-          <cell r="B310">
-            <v>23</v>
-          </cell>
-          <cell r="F310" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="G310">
-            <v>13</v>
-          </cell>
-          <cell r="H310" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="311">
-          <cell r="B311">
-            <v>25</v>
-          </cell>
-          <cell r="F311" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="G311">
-            <v>14</v>
-          </cell>
-          <cell r="H311" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="312">
-          <cell r="B312">
-            <v>28</v>
-          </cell>
-          <cell r="F312" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="G312">
-            <v>15</v>
-          </cell>
-          <cell r="H312" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="313">
-          <cell r="B313">
-            <v>36</v>
-          </cell>
-          <cell r="F313" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="G313">
-            <v>23</v>
-          </cell>
-          <cell r="H313" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="314">
-          <cell r="B314">
-            <v>38</v>
-          </cell>
-          <cell r="F314" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="G314">
-            <v>24</v>
-          </cell>
-          <cell r="H314" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="315">
-          <cell r="B315">
-            <v>34</v>
-          </cell>
-          <cell r="F315" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="G315">
-            <v>17</v>
-          </cell>
-          <cell r="H315" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="316">
-          <cell r="B316">
-            <v>27</v>
-          </cell>
-          <cell r="F316" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="G316">
-            <v>14</v>
-          </cell>
-          <cell r="H316" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="317">
-          <cell r="B317">
-            <v>33</v>
-          </cell>
-          <cell r="F317" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="G317">
-            <v>17</v>
-          </cell>
-          <cell r="H317" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="318">
-          <cell r="B318">
-            <v>34</v>
-          </cell>
-          <cell r="F318" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="G318">
-            <v>16</v>
-          </cell>
-          <cell r="H318" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="319">
-          <cell r="B319">
-            <v>27</v>
-          </cell>
-          <cell r="F319" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="G319">
-            <v>14</v>
-          </cell>
-          <cell r="H319" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="320">
-          <cell r="B320">
-            <v>33</v>
-          </cell>
-          <cell r="F320" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="G320">
-            <v>15</v>
-          </cell>
-          <cell r="H320" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="321">
-          <cell r="B321">
-            <v>26</v>
-          </cell>
-          <cell r="F321" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="G321">
-            <v>13</v>
-          </cell>
-          <cell r="H321" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="322">
-          <cell r="B322">
-            <v>26</v>
-          </cell>
-          <cell r="F322" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="G322">
-            <v>13</v>
-          </cell>
-          <cell r="H322" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="323">
-          <cell r="B323">
-            <v>26</v>
-          </cell>
-          <cell r="F323" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="G323">
-            <v>13</v>
-          </cell>
-          <cell r="H323" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="324">
-          <cell r="B324">
-            <v>26</v>
-          </cell>
-          <cell r="F324" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="G324">
-            <v>13</v>
-          </cell>
-          <cell r="H324" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="325">
-          <cell r="B325">
-            <v>26</v>
-          </cell>
-          <cell r="F325" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="G325">
-            <v>13</v>
-          </cell>
-          <cell r="H325" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="326">
-          <cell r="B326">
-            <v>26</v>
-          </cell>
-          <cell r="F326" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="G326">
-            <v>13</v>
-          </cell>
-          <cell r="H326" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="327">
-          <cell r="B327">
-            <v>26</v>
-          </cell>
-          <cell r="F327" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="G327">
-            <v>13</v>
-          </cell>
-          <cell r="H327" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="328">
-          <cell r="B328">
-            <v>26</v>
-          </cell>
-          <cell r="F328" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="G328">
-            <v>13</v>
-          </cell>
-          <cell r="H328" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="329">
-          <cell r="B329">
-            <v>26</v>
-          </cell>
-          <cell r="F329" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="G329">
-            <v>13</v>
-          </cell>
-          <cell r="H329" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="330">
-          <cell r="B330">
-            <v>26</v>
-          </cell>
-          <cell r="F330" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="G330">
-            <v>13</v>
-          </cell>
-          <cell r="H330" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="331">
-          <cell r="B331">
-            <v>26</v>
-          </cell>
-          <cell r="F331">
-            <v>13</v>
-          </cell>
-          <cell r="G331" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="H331" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="332">
-          <cell r="B332">
-            <v>28</v>
-          </cell>
-          <cell r="F332">
-            <v>14</v>
-          </cell>
-          <cell r="G332" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="H332" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="333">
-          <cell r="B333">
-            <v>33</v>
-          </cell>
-          <cell r="F333">
-            <v>16</v>
-          </cell>
-          <cell r="G333" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="H333" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="334">
-          <cell r="B334">
-            <v>28</v>
-          </cell>
-          <cell r="F334">
-            <v>14</v>
-          </cell>
-          <cell r="G334" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="H334" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="335">
-          <cell r="B335">
-            <v>33</v>
-          </cell>
-          <cell r="F335">
-            <v>19</v>
-          </cell>
-          <cell r="G335" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="H335" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="336">
-          <cell r="B336">
-            <v>14</v>
-          </cell>
-          <cell r="F336">
-            <v>13</v>
-          </cell>
-          <cell r="G336" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="H336" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="337">
-          <cell r="B337">
-            <v>17</v>
-          </cell>
-          <cell r="F337">
-            <v>15</v>
-          </cell>
-          <cell r="G337" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="H337" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="338">
-          <cell r="B338">
-            <v>16</v>
-          </cell>
-          <cell r="F338">
-            <v>14</v>
-          </cell>
-          <cell r="G338" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="H338" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="339">
-          <cell r="B339">
-            <v>16</v>
-          </cell>
-          <cell r="F339">
-            <v>14</v>
-          </cell>
-          <cell r="G339" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="H339" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="340">
-          <cell r="B340">
-            <v>19</v>
-          </cell>
-          <cell r="F340">
-            <v>17</v>
-          </cell>
-          <cell r="G340" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="H340" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="341">
-          <cell r="B341">
-            <v>19</v>
-          </cell>
-          <cell r="F341">
-            <v>17</v>
-          </cell>
-          <cell r="G341" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="H341" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="342">
-          <cell r="B342">
-            <v>19</v>
-          </cell>
-          <cell r="F342">
-            <v>17</v>
-          </cell>
-          <cell r="G342" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="H342" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="343">
-          <cell r="B343">
-            <v>19</v>
-          </cell>
-          <cell r="F343">
-            <v>17</v>
-          </cell>
-          <cell r="G343" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="H343" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="344">
-          <cell r="B344">
-            <v>3</v>
-          </cell>
-          <cell r="F344">
-            <v>1</v>
-          </cell>
-          <cell r="G344" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="H344" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="345">
-          <cell r="B345">
-            <v>3</v>
-          </cell>
-          <cell r="F345">
-            <v>1</v>
-          </cell>
-          <cell r="G345" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="H345" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="346">
-          <cell r="B346">
-            <v>3</v>
-          </cell>
-          <cell r="F346">
-            <v>1</v>
-          </cell>
-          <cell r="G346" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="H346" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="347">
-          <cell r="B347">
-            <v>3</v>
-          </cell>
-          <cell r="F347">
-            <v>1</v>
-          </cell>
-          <cell r="G347" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="H347" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="348">
-          <cell r="B348">
-            <v>3</v>
-          </cell>
-          <cell r="F348">
-            <v>1</v>
-          </cell>
-          <cell r="G348" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="H348" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="349">
-          <cell r="B349">
-            <v>3</v>
-          </cell>
-          <cell r="F349">
-            <v>1</v>
-          </cell>
-          <cell r="G349" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="H349" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="350">
-          <cell r="B350">
-            <v>3</v>
-          </cell>
-          <cell r="F350">
-            <v>1</v>
-          </cell>
-          <cell r="G350" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="H350" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="351">
-          <cell r="B351">
-            <v>3</v>
-          </cell>
-          <cell r="F351">
-            <v>1</v>
-          </cell>
-          <cell r="G351" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="H351" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="352">
-          <cell r="B352">
-            <v>3</v>
-          </cell>
-          <cell r="F352">
-            <v>1</v>
-          </cell>
-          <cell r="G352" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="H352" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="353">
-          <cell r="B353">
-            <v>1</v>
-          </cell>
-          <cell r="F353">
-            <v>1</v>
-          </cell>
-          <cell r="G353" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="H353" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="354">
-          <cell r="B354">
-            <v>21</v>
-          </cell>
-          <cell r="F354">
-            <v>21</v>
-          </cell>
-          <cell r="G354" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="H354" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="355">
-          <cell r="B355">
-            <v>18</v>
-          </cell>
-          <cell r="F355">
-            <v>18</v>
-          </cell>
-          <cell r="G355" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="H355" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="356">
-          <cell r="B356">
-            <v>20</v>
-          </cell>
-          <cell r="F356">
-            <v>20</v>
-          </cell>
-          <cell r="G356" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="H356" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="357">
-          <cell r="B357">
-            <v>13</v>
-          </cell>
-          <cell r="F357">
-            <v>13</v>
-          </cell>
-          <cell r="G357" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="H357" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="358">
-          <cell r="B358">
-            <v>16</v>
-          </cell>
-          <cell r="F358">
-            <v>14</v>
-          </cell>
-          <cell r="G358" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="H358" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="359">
-          <cell r="B359">
-            <v>12</v>
-          </cell>
-          <cell r="F359">
-            <v>12</v>
-          </cell>
-          <cell r="G359" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="H359" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="360">
-          <cell r="B360">
-            <v>12</v>
-          </cell>
-          <cell r="F360">
-            <v>12</v>
-          </cell>
-          <cell r="G360" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="H360" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="361">
-          <cell r="B361">
-            <v>12</v>
-          </cell>
-          <cell r="F361">
-            <v>12</v>
-          </cell>
-          <cell r="G361" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="H361" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="362">
-          <cell r="B362">
-            <v>12</v>
-          </cell>
-          <cell r="F362">
-            <v>12</v>
-          </cell>
-          <cell r="G362" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="H362" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="363">
-          <cell r="B363">
-            <v>12</v>
-          </cell>
-          <cell r="F363" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="G363">
-            <v>12</v>
-          </cell>
-          <cell r="H363" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="364">
-          <cell r="B364">
-            <v>12</v>
-          </cell>
-          <cell r="F364" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="G364">
-            <v>12</v>
-          </cell>
-          <cell r="H364" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="365">
-          <cell r="B365">
-            <v>12</v>
-          </cell>
-          <cell r="F365" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="G365">
-            <v>12</v>
-          </cell>
-          <cell r="H365" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="366">
-          <cell r="B366">
-            <v>12</v>
-          </cell>
-          <cell r="F366" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="G366">
-            <v>12</v>
-          </cell>
-          <cell r="H366" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="367">
-          <cell r="B367">
-            <v>13</v>
-          </cell>
-          <cell r="F367" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="G367">
-            <v>13</v>
-          </cell>
-          <cell r="H367" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="368">
-          <cell r="B368">
-            <v>14</v>
-          </cell>
-          <cell r="F368" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="G368">
-            <v>13</v>
-          </cell>
-          <cell r="H368" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="369">
-          <cell r="B369">
-            <v>24</v>
-          </cell>
-          <cell r="F369" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="G369">
-            <v>12</v>
-          </cell>
-          <cell r="H369" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="370">
-          <cell r="B370">
-            <v>25</v>
-          </cell>
-          <cell r="F370" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="G370">
-            <v>14</v>
-          </cell>
-          <cell r="H370" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="371">
-          <cell r="B371">
-            <v>22</v>
-          </cell>
-          <cell r="F371" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="G371">
-            <v>12</v>
-          </cell>
-          <cell r="H371" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="372">
-          <cell r="B372">
-            <v>26</v>
-          </cell>
-          <cell r="F372" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="G372">
-            <v>15</v>
-          </cell>
-          <cell r="H372" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="373">
-          <cell r="B373">
-            <v>22</v>
-          </cell>
-          <cell r="F373" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="G373">
-            <v>12</v>
-          </cell>
-          <cell r="H373" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="374">
-          <cell r="B374">
-            <v>25</v>
-          </cell>
-          <cell r="F374" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="G374">
-            <v>14</v>
-          </cell>
-          <cell r="H374" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="375">
-          <cell r="B375">
-            <v>25</v>
-          </cell>
-          <cell r="F375" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="G375">
-            <v>14</v>
-          </cell>
-          <cell r="H375" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="376">
-          <cell r="B376">
-            <v>25</v>
-          </cell>
-          <cell r="F376" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="G376">
-            <v>14</v>
-          </cell>
-          <cell r="H376" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="377">
-          <cell r="B377">
-            <v>25</v>
-          </cell>
-          <cell r="F377" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="G377">
-            <v>14</v>
-          </cell>
-          <cell r="H377" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="378">
-          <cell r="B378">
-            <v>25</v>
-          </cell>
-          <cell r="F378" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="G378" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="H378">
-            <v>14</v>
-          </cell>
-        </row>
-        <row r="379">
-          <cell r="B379">
-            <v>25</v>
-          </cell>
-          <cell r="F379" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="G379" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="H379">
-            <v>14</v>
-          </cell>
-        </row>
-        <row r="380">
-          <cell r="B380">
-            <v>25</v>
-          </cell>
-          <cell r="F380" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="G380" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="H380">
-            <v>14</v>
-          </cell>
-        </row>
-        <row r="381">
-          <cell r="B381">
-            <v>28</v>
-          </cell>
-          <cell r="F381" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="G381" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="H381">
-            <v>15</v>
-          </cell>
-        </row>
-        <row r="382">
-          <cell r="B382">
-            <v>22</v>
-          </cell>
-          <cell r="F382" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="G382" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="H382">
-            <v>11</v>
-          </cell>
-        </row>
-        <row r="383">
-          <cell r="B383">
-            <v>30</v>
-          </cell>
-          <cell r="F383" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="G383" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="H383">
-            <v>16</v>
-          </cell>
-        </row>
-        <row r="384">
-          <cell r="B384">
-            <v>39</v>
-          </cell>
-          <cell r="F384" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="G384" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="H384">
-            <v>25</v>
-          </cell>
-        </row>
-        <row r="385">
-          <cell r="B385">
-            <v>38</v>
-          </cell>
-          <cell r="F385" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="G385" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="H385">
-            <v>26</v>
-          </cell>
-        </row>
-        <row r="386">
-          <cell r="B386">
-            <v>37</v>
-          </cell>
-          <cell r="F386" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="G386" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="H386">
-            <v>24</v>
-          </cell>
-        </row>
-        <row r="387">
-          <cell r="B387">
-            <v>41</v>
-          </cell>
-          <cell r="F387" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="G387" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="H387">
-            <v>14</v>
-          </cell>
-        </row>
-        <row r="388">
-          <cell r="B388">
-            <v>38</v>
-          </cell>
-          <cell r="F388" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="G388" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="H388">
-            <v>14</v>
-          </cell>
-        </row>
-        <row r="389">
-          <cell r="B389">
-            <v>34</v>
-          </cell>
-          <cell r="F389" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="G389" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="H389">
-            <v>14</v>
-          </cell>
-        </row>
-        <row r="390">
-          <cell r="B390">
-            <v>40</v>
-          </cell>
-          <cell r="F390" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="G390" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="H390">
-            <v>26</v>
-          </cell>
-        </row>
-        <row r="391">
-          <cell r="B391">
-            <v>39</v>
-          </cell>
-          <cell r="F391" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="G391" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="H391">
-            <v>14</v>
-          </cell>
-        </row>
-        <row r="392">
-          <cell r="B392">
-            <v>35</v>
-          </cell>
-          <cell r="F392" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="G392" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="H392">
-            <v>12</v>
-          </cell>
-        </row>
-        <row r="393">
-          <cell r="B393">
-            <v>43</v>
-          </cell>
-          <cell r="F393" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="G393" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="H393">
-            <v>16</v>
-          </cell>
-        </row>
-        <row r="394">
-          <cell r="B394">
-            <v>32</v>
-          </cell>
-          <cell r="F394" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="G394" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="H394">
-            <v>14</v>
-          </cell>
-        </row>
-        <row r="395">
-          <cell r="B395">
-            <v>32</v>
-          </cell>
-          <cell r="F395" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="G395" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="H395">
-            <v>14</v>
-          </cell>
-        </row>
-        <row r="396">
-          <cell r="B396">
-            <v>32</v>
-          </cell>
-          <cell r="F396" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="G396">
-            <v>14</v>
-          </cell>
-          <cell r="H396" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="397">
-          <cell r="B397">
-            <v>32</v>
-          </cell>
-          <cell r="F397" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="G397">
-            <v>14</v>
-          </cell>
-          <cell r="H397" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="398">
-          <cell r="B398">
-            <v>32</v>
-          </cell>
-          <cell r="F398" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="G398">
-            <v>14</v>
-          </cell>
-          <cell r="H398" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="399">
-          <cell r="B399">
-            <v>32</v>
-          </cell>
-          <cell r="F399" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="G399">
-            <v>14</v>
-          </cell>
-          <cell r="H399" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="400">
-          <cell r="B400">
-            <v>32</v>
-          </cell>
-          <cell r="F400" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="G400">
-            <v>14</v>
-          </cell>
-          <cell r="H400" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="401">
-          <cell r="B401">
-            <v>32</v>
-          </cell>
-          <cell r="F401" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="G401">
-            <v>14</v>
-          </cell>
-          <cell r="H401" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="402">
-          <cell r="B402">
-            <v>32</v>
-          </cell>
-          <cell r="F402" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="G402">
-            <v>14</v>
-          </cell>
-          <cell r="H402" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="403">
-          <cell r="B403">
-            <v>32</v>
-          </cell>
-          <cell r="F403" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="G403">
-            <v>14</v>
-          </cell>
-          <cell r="H403" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="404">
-          <cell r="B404">
-            <v>32</v>
-          </cell>
-          <cell r="F404" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="G404">
-            <v>14</v>
-          </cell>
-          <cell r="H404" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="405">
-          <cell r="B405">
-            <v>32</v>
-          </cell>
-          <cell r="F405" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="G405">
-            <v>14</v>
-          </cell>
-          <cell r="H405" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="406">
-          <cell r="B406">
-            <v>32</v>
-          </cell>
-          <cell r="F406" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="G406">
-            <v>14</v>
-          </cell>
-          <cell r="H406" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="407">
-          <cell r="B407">
-            <v>32</v>
-          </cell>
-          <cell r="F407" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="G407">
-            <v>14</v>
-          </cell>
-          <cell r="H407" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="408">
-          <cell r="B408">
-            <v>32</v>
-          </cell>
-          <cell r="F408" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="G408">
-            <v>14</v>
-          </cell>
-          <cell r="H408" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="409">
-          <cell r="B409">
-            <v>32</v>
-          </cell>
-          <cell r="F409" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="G409">
-            <v>14</v>
-          </cell>
-          <cell r="H409" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="410">
-          <cell r="B410">
-            <v>30</v>
-          </cell>
-          <cell r="F410" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="G410">
-            <v>14</v>
-          </cell>
-          <cell r="H410" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="411">
-          <cell r="B411">
-            <v>28</v>
-          </cell>
-          <cell r="F411" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="G411">
-            <v>13</v>
-          </cell>
-          <cell r="H411" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="412">
-          <cell r="B412">
-            <v>27</v>
-          </cell>
-          <cell r="F412" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="G412">
-            <v>14</v>
-          </cell>
-          <cell r="H412" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="413">
-          <cell r="B413">
-            <v>30</v>
-          </cell>
-          <cell r="F413" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="G413">
-            <v>14</v>
-          </cell>
-          <cell r="H413" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="414">
-          <cell r="B414">
-            <v>26</v>
-          </cell>
-          <cell r="F414" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="G414">
-            <v>13</v>
-          </cell>
-          <cell r="H414" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="415">
-          <cell r="B415">
-            <v>29</v>
-          </cell>
-          <cell r="F415" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="G415">
-            <v>14</v>
-          </cell>
-          <cell r="H415" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="416">
-          <cell r="B416">
-            <v>24</v>
-          </cell>
-          <cell r="F416" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="G416">
-            <v>12</v>
-          </cell>
-          <cell r="H416" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="417">
-          <cell r="B417">
-            <v>33</v>
-          </cell>
-          <cell r="F417" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="G417">
-            <v>15</v>
-          </cell>
-          <cell r="H417" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="418">
-          <cell r="B418">
-            <v>24</v>
-          </cell>
-          <cell r="F418" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="G418">
-            <v>14</v>
-          </cell>
-          <cell r="H418" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="419">
-          <cell r="B419">
-            <v>32</v>
-          </cell>
-          <cell r="F419" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="G419">
-            <v>19</v>
-          </cell>
-          <cell r="H419" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="420">
-          <cell r="B420">
-            <v>23</v>
-          </cell>
-          <cell r="F420" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="G420">
-            <v>21</v>
-          </cell>
-          <cell r="H420" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="421">
-          <cell r="B421">
-            <v>26</v>
-          </cell>
-          <cell r="F421" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="G421">
-            <v>12</v>
-          </cell>
-          <cell r="H421" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="422">
-          <cell r="B422">
-            <v>21</v>
-          </cell>
-          <cell r="F422" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="G422">
-            <v>10</v>
-          </cell>
-          <cell r="H422" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="423">
-          <cell r="B423">
-            <v>25</v>
-          </cell>
-          <cell r="F423" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="G423">
-            <v>11</v>
-          </cell>
-          <cell r="H423" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="424">
-          <cell r="B424">
-            <v>23</v>
-          </cell>
-          <cell r="F424" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="G424">
-            <v>11</v>
-          </cell>
-          <cell r="H424" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="425">
-          <cell r="B425">
-            <v>23</v>
-          </cell>
-          <cell r="F425" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="G425">
-            <v>11</v>
-          </cell>
-          <cell r="H425" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="426">
-          <cell r="B426">
-            <v>23</v>
-          </cell>
-          <cell r="F426" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="G426">
-            <v>11</v>
-          </cell>
-          <cell r="H426" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="427">
-          <cell r="B427">
-            <v>23</v>
-          </cell>
-          <cell r="F427" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="G427">
-            <v>11</v>
-          </cell>
-          <cell r="H427" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="428">
-          <cell r="B428">
-            <v>23</v>
-          </cell>
-          <cell r="F428" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="G428">
-            <v>11</v>
-          </cell>
-          <cell r="H428" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="429">
-          <cell r="B429">
-            <v>23</v>
-          </cell>
-          <cell r="F429" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="G429">
-            <v>11</v>
-          </cell>
-          <cell r="H429" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="430">
-          <cell r="B430">
-            <v>23</v>
-          </cell>
-          <cell r="F430" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="G430">
-            <v>11</v>
-          </cell>
-          <cell r="H430" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="431">
-          <cell r="B431">
-            <v>23</v>
-          </cell>
-          <cell r="F431" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="G431">
-            <v>11</v>
-          </cell>
-          <cell r="H431" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="432">
-          <cell r="B432">
-            <v>23</v>
-          </cell>
-          <cell r="F432" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="G432">
-            <v>11</v>
-          </cell>
-          <cell r="H432" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="433">
-          <cell r="B433">
-            <v>23</v>
-          </cell>
-          <cell r="F433" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="G433">
-            <v>11</v>
-          </cell>
-          <cell r="H433" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="434">
-          <cell r="B434">
-            <v>23</v>
-          </cell>
-          <cell r="F434" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="G434">
-            <v>11</v>
-          </cell>
-          <cell r="H434" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="435">
-          <cell r="B435">
-            <v>23</v>
-          </cell>
-          <cell r="F435" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="G435">
-            <v>11</v>
-          </cell>
-          <cell r="H435" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="436">
-          <cell r="B436">
-            <v>23</v>
-          </cell>
-          <cell r="F436">
-            <v>10</v>
-          </cell>
-          <cell r="G436" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="H436" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="437">
-          <cell r="B437">
-            <v>27</v>
-          </cell>
-          <cell r="F437">
-            <v>13</v>
-          </cell>
-          <cell r="G437" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="H437" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="438">
-          <cell r="B438">
-            <v>21</v>
-          </cell>
-          <cell r="F438">
-            <v>11</v>
-          </cell>
-          <cell r="G438" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="H438" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="439">
-          <cell r="B439">
-            <v>28</v>
-          </cell>
-          <cell r="F439">
-            <v>28</v>
-          </cell>
-          <cell r="G439" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="H439" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="440">
-          <cell r="B440">
-            <v>29</v>
-          </cell>
-          <cell r="F440">
-            <v>16</v>
-          </cell>
-          <cell r="G440" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="H440" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="441">
-          <cell r="B441">
-            <v>19</v>
-          </cell>
-          <cell r="F441">
-            <v>11</v>
-          </cell>
-          <cell r="G441" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="H441" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="442">
-          <cell r="B442">
-            <v>18</v>
-          </cell>
-          <cell r="F442">
-            <v>18</v>
-          </cell>
-          <cell r="G442" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="H442" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="443">
-          <cell r="B443">
-            <v>22</v>
-          </cell>
-          <cell r="F443">
-            <v>19</v>
-          </cell>
-          <cell r="G443" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="H443" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="444">
-          <cell r="B444">
-            <v>16</v>
-          </cell>
-          <cell r="F444">
-            <v>16</v>
-          </cell>
-          <cell r="G444" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="H444" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="445">
-          <cell r="B445">
-            <v>15</v>
-          </cell>
-          <cell r="F445">
-            <v>15</v>
-          </cell>
-          <cell r="G445" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="H445" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="446">
-          <cell r="B446">
-            <v>13</v>
-          </cell>
-          <cell r="F446">
-            <v>13</v>
-          </cell>
-          <cell r="G446" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="H446" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="447">
-          <cell r="B447">
-            <v>14</v>
-          </cell>
-          <cell r="F447">
-            <v>14</v>
-          </cell>
-          <cell r="G447" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="H447" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="448">
-          <cell r="B448">
-            <v>17</v>
-          </cell>
-          <cell r="F448">
-            <v>16</v>
-          </cell>
-          <cell r="G448" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="H448" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="449">
-          <cell r="B449">
-            <v>11</v>
-          </cell>
-          <cell r="F449">
-            <v>11</v>
-          </cell>
-          <cell r="G449" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="H449" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="450">
-          <cell r="B450">
-            <v>20</v>
-          </cell>
-          <cell r="F450">
-            <v>18</v>
-          </cell>
-          <cell r="G450" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="H450" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="451">
-          <cell r="B451">
-            <v>23</v>
-          </cell>
-          <cell r="F451" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="G451">
-            <v>15</v>
-          </cell>
-          <cell r="H451" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="452">
-          <cell r="B452">
-            <v>26</v>
-          </cell>
-          <cell r="F452" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="G452">
-            <v>15</v>
-          </cell>
-          <cell r="H452" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="453">
-          <cell r="B453">
-            <v>26</v>
-          </cell>
-          <cell r="F453" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="G453">
-            <v>15</v>
-          </cell>
-          <cell r="H453" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="454">
-          <cell r="B454">
-            <v>26</v>
-          </cell>
-          <cell r="F454" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="G454">
-            <v>15</v>
-          </cell>
-          <cell r="H454" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="455">
-          <cell r="B455">
-            <v>26</v>
-          </cell>
-          <cell r="F455" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="G455">
-            <v>15</v>
-          </cell>
-          <cell r="H455" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="456">
-          <cell r="B456">
-            <v>26</v>
-          </cell>
-          <cell r="F456" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="G456">
-            <v>15</v>
-          </cell>
-          <cell r="H456" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="457">
-          <cell r="B457">
-            <v>30</v>
-          </cell>
-          <cell r="F457" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="G457">
-            <v>16</v>
-          </cell>
-          <cell r="H457" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="458">
-          <cell r="B458">
-            <v>33</v>
-          </cell>
-          <cell r="F458" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="G458">
-            <v>18</v>
-          </cell>
-          <cell r="H458" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="459">
-          <cell r="B459">
-            <v>33</v>
-          </cell>
-          <cell r="F459" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="G459">
-            <v>18</v>
-          </cell>
-          <cell r="H459" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="460">
-          <cell r="B460">
-            <v>33</v>
-          </cell>
-          <cell r="F460" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="G460">
-            <v>18</v>
-          </cell>
-          <cell r="H460" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="461">
-          <cell r="B461">
-            <v>33</v>
-          </cell>
-          <cell r="F461" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="G461">
-            <v>18</v>
-          </cell>
-          <cell r="H461" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="462">
-          <cell r="B462">
-            <v>33</v>
-          </cell>
-          <cell r="F462" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="G462">
-            <v>18</v>
-          </cell>
-          <cell r="H462" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="463">
-          <cell r="B463">
-            <v>33</v>
-          </cell>
-          <cell r="F463" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="G463">
-            <v>18</v>
-          </cell>
-          <cell r="H463" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="464">
-          <cell r="B464">
-            <v>33</v>
-          </cell>
-          <cell r="F464" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="G464">
-            <v>18</v>
-          </cell>
-          <cell r="H464" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="465">
-          <cell r="B465">
-            <v>33</v>
-          </cell>
-          <cell r="F465" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="G465" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="H465">
-            <v>18</v>
-          </cell>
-        </row>
-        <row r="466">
-          <cell r="B466">
-            <v>33</v>
-          </cell>
-          <cell r="F466" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="G466" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="H466">
-            <v>18</v>
-          </cell>
-        </row>
-        <row r="467">
-          <cell r="B467">
-            <v>33</v>
-          </cell>
-          <cell r="F467" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="G467" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="H467">
-            <v>18</v>
-          </cell>
-        </row>
-        <row r="468">
-          <cell r="B468">
-            <v>33</v>
-          </cell>
-          <cell r="F468" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="G468" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="H468">
-            <v>18</v>
-          </cell>
-        </row>
-        <row r="469">
-          <cell r="B469">
-            <v>33</v>
-          </cell>
-          <cell r="F469" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="G469" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="H469">
-            <v>18</v>
-          </cell>
-        </row>
-        <row r="470">
-          <cell r="B470">
-            <v>33</v>
-          </cell>
-          <cell r="F470" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="G470" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="H470">
-            <v>18</v>
-          </cell>
-        </row>
-        <row r="471">
-          <cell r="B471">
-            <v>25</v>
-          </cell>
-          <cell r="F471" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="G471" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="H471">
-            <v>13</v>
-          </cell>
-        </row>
-        <row r="472">
-          <cell r="B472">
-            <v>33</v>
-          </cell>
-          <cell r="F472" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="G472" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="H472">
-            <v>17</v>
-          </cell>
-        </row>
-        <row r="473">
-          <cell r="B473">
-            <v>26</v>
-          </cell>
-          <cell r="F473" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="G473" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="H473">
-            <v>14</v>
-          </cell>
-        </row>
-        <row r="474">
-          <cell r="B474">
-            <v>32</v>
-          </cell>
-          <cell r="F474" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="G474" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="H474">
-            <v>16</v>
-          </cell>
-        </row>
-        <row r="475">
-          <cell r="B475">
-            <v>39</v>
-          </cell>
-          <cell r="F475" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="G475" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="H475">
-            <v>23</v>
-          </cell>
-        </row>
-        <row r="476">
-          <cell r="B476">
-            <v>44</v>
-          </cell>
-          <cell r="F476" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="G476" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="H476">
-            <v>30</v>
-          </cell>
-        </row>
-        <row r="477">
-          <cell r="B477">
-            <v>44</v>
-          </cell>
-          <cell r="F477" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="G477" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="H477">
-            <v>44</v>
-          </cell>
-        </row>
-        <row r="478">
-          <cell r="B478">
-            <v>48</v>
-          </cell>
-          <cell r="F478" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="G478" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="H478">
-            <v>31</v>
-          </cell>
-        </row>
-        <row r="479">
-          <cell r="B479">
-            <v>47</v>
-          </cell>
-          <cell r="F479" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="G479" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="H479">
-            <v>31</v>
-          </cell>
-        </row>
-        <row r="480">
-          <cell r="B480">
-            <v>42</v>
-          </cell>
-          <cell r="F480" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="G480" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="H480">
-            <v>27</v>
-          </cell>
-        </row>
-        <row r="481">
-          <cell r="B481">
-            <v>45</v>
-          </cell>
-          <cell r="F481" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="G481" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="H481">
-            <v>29</v>
-          </cell>
-        </row>
-        <row r="482">
-          <cell r="B482">
-            <v>48</v>
-          </cell>
-          <cell r="F482" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="G482" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="H482">
-            <v>33</v>
-          </cell>
-        </row>
-        <row r="483">
-          <cell r="B483">
-            <v>48</v>
-          </cell>
-          <cell r="F483" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="G483" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="H483">
-            <v>32</v>
-          </cell>
-        </row>
-        <row r="484">
-          <cell r="B484">
-            <v>42</v>
-          </cell>
-          <cell r="F484" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="G484" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="H484">
-            <v>17</v>
-          </cell>
-        </row>
-        <row r="485">
-          <cell r="B485">
-            <v>42</v>
-          </cell>
-          <cell r="F485" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="G485" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="H485">
-            <v>28</v>
-          </cell>
-        </row>
-        <row r="486">
-          <cell r="B486">
-            <v>42</v>
-          </cell>
-          <cell r="F486" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="G486" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="H486">
-            <v>28</v>
-          </cell>
-        </row>
-        <row r="487">
-          <cell r="B487">
-            <v>47</v>
-          </cell>
-          <cell r="F487" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="G487" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="H487">
-            <v>29</v>
-          </cell>
-        </row>
-        <row r="488">
-          <cell r="B488">
-            <v>44</v>
-          </cell>
-          <cell r="F488" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="G488" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="H488">
-            <v>29</v>
-          </cell>
-        </row>
-        <row r="489">
-          <cell r="B489">
-            <v>39</v>
-          </cell>
-          <cell r="F489" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="G489" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="H489">
-            <v>14</v>
-          </cell>
-        </row>
-        <row r="490">
-          <cell r="B490">
-            <v>44</v>
-          </cell>
-          <cell r="F490" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="G490" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="H490">
-            <v>30</v>
-          </cell>
-        </row>
-        <row r="491">
-          <cell r="B491">
-            <v>47</v>
-          </cell>
-          <cell r="F491" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="G491">
-            <v>31</v>
-          </cell>
-          <cell r="H491" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="492">
-          <cell r="B492">
-            <v>50</v>
-          </cell>
-          <cell r="F492" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="G492">
-            <v>50</v>
-          </cell>
-          <cell r="H492" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="493">
-          <cell r="B493">
-            <v>39</v>
-          </cell>
-          <cell r="F493" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="G493">
-            <v>14</v>
-          </cell>
-          <cell r="H493" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="494">
-          <cell r="B494">
-            <v>47</v>
-          </cell>
-          <cell r="F494" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="G494">
-            <v>32</v>
-          </cell>
-          <cell r="H494" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="495">
-          <cell r="B495">
-            <v>30</v>
-          </cell>
-          <cell r="F495" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="G495">
-            <v>13</v>
-          </cell>
-          <cell r="H495" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="496">
-          <cell r="B496">
-            <v>38</v>
-          </cell>
-          <cell r="F496" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="G496">
-            <v>21</v>
-          </cell>
-          <cell r="H496" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="497">
-          <cell r="B497">
-            <v>26</v>
-          </cell>
-          <cell r="F497" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="G497">
-            <v>13</v>
-          </cell>
-          <cell r="H497" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="498">
-          <cell r="B498">
-            <v>36</v>
-          </cell>
-          <cell r="F498" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="G498">
-            <v>20</v>
-          </cell>
-          <cell r="H498" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="499">
-          <cell r="B499">
-            <v>33</v>
-          </cell>
-          <cell r="F499" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="G499">
-            <v>16</v>
-          </cell>
-          <cell r="H499" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="500">
-          <cell r="B500">
-            <v>33</v>
-          </cell>
-          <cell r="F500" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="G500">
-            <v>16</v>
-          </cell>
-          <cell r="H500" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="501">
-          <cell r="B501">
-            <v>33</v>
-          </cell>
-          <cell r="F501" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="G501">
-            <v>16</v>
-          </cell>
-          <cell r="H501" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="502">
-          <cell r="B502">
-            <v>33</v>
-          </cell>
-          <cell r="F502" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="G502">
-            <v>16</v>
-          </cell>
-          <cell r="H502" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="503">
-          <cell r="B503">
-            <v>33</v>
-          </cell>
-          <cell r="F503" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="G503">
-            <v>16</v>
-          </cell>
-          <cell r="H503" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="504">
-          <cell r="B504">
-            <v>33</v>
-          </cell>
-          <cell r="F504" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="G504">
-            <v>16</v>
-          </cell>
-          <cell r="H504" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="505">
-          <cell r="B505">
-            <v>33</v>
-          </cell>
-          <cell r="F505" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="G505">
-            <v>16</v>
-          </cell>
-          <cell r="H505" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="506">
-          <cell r="B506">
-            <v>33</v>
-          </cell>
-          <cell r="F506" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="G506">
-            <v>18</v>
-          </cell>
-          <cell r="H506" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="507">
-          <cell r="B507">
-            <v>33</v>
-          </cell>
-          <cell r="F507" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="G507">
-            <v>33</v>
-          </cell>
-          <cell r="H507" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="508">
-          <cell r="B508">
-            <v>40</v>
-          </cell>
-          <cell r="F508" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="G508">
-            <v>24</v>
-          </cell>
-          <cell r="H508" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="509">
-          <cell r="B509">
-            <v>36</v>
-          </cell>
-          <cell r="F509" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="G509">
-            <v>16</v>
-          </cell>
-          <cell r="H509" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="510">
-          <cell r="B510">
-            <v>35</v>
-          </cell>
-          <cell r="F510" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="G510">
-            <v>18</v>
-          </cell>
-          <cell r="H510" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="511">
-          <cell r="B511">
-            <v>28</v>
-          </cell>
-          <cell r="F511" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="G511">
-            <v>13</v>
-          </cell>
-          <cell r="H511" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="512">
-          <cell r="B512">
-            <v>28</v>
-          </cell>
-          <cell r="F512" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="G512">
-            <v>13</v>
-          </cell>
-          <cell r="H512" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="513">
-          <cell r="B513">
-            <v>28</v>
-          </cell>
-          <cell r="F513" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="G513">
-            <v>13</v>
-          </cell>
-          <cell r="H513" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="514">
-          <cell r="B514">
-            <v>28</v>
-          </cell>
-          <cell r="F514" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="G514">
-            <v>13</v>
-          </cell>
-          <cell r="H514" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="515">
-          <cell r="B515">
-            <v>28</v>
-          </cell>
-          <cell r="F515" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="G515">
-            <v>13</v>
-          </cell>
-          <cell r="H515" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="516">
-          <cell r="B516">
-            <v>28</v>
-          </cell>
-          <cell r="F516" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="G516">
-            <v>13</v>
-          </cell>
-          <cell r="H516" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="517">
-          <cell r="B517">
-            <v>28</v>
-          </cell>
-          <cell r="F517" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="G517">
-            <v>13</v>
-          </cell>
-          <cell r="H517" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="518">
-          <cell r="B518">
-            <v>28</v>
-          </cell>
-          <cell r="F518" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="G518">
-            <v>13</v>
-          </cell>
-          <cell r="H518" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="519">
-          <cell r="B519">
-            <v>28</v>
-          </cell>
-          <cell r="F519" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="G519">
-            <v>14</v>
-          </cell>
-          <cell r="H519" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="520">
-          <cell r="B520">
-            <v>36</v>
-          </cell>
-          <cell r="F520" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="G520">
-            <v>17</v>
-          </cell>
-          <cell r="H520" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="521">
-          <cell r="B521">
-            <v>35</v>
-          </cell>
-          <cell r="F521" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="G521">
-            <v>17</v>
-          </cell>
-          <cell r="H521" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="522">
-          <cell r="B522">
-            <v>27</v>
-          </cell>
-          <cell r="F522" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="G522">
-            <v>14</v>
-          </cell>
-          <cell r="H522" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="523">
-          <cell r="B523">
-            <v>36</v>
-          </cell>
-          <cell r="F523" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="G523">
-            <v>17</v>
-          </cell>
-          <cell r="H523" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="524">
-          <cell r="B524">
-            <v>28</v>
-          </cell>
-          <cell r="F524" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="G524">
-            <v>15</v>
-          </cell>
-          <cell r="H524" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="525">
-          <cell r="B525">
-            <v>32</v>
-          </cell>
-          <cell r="F525" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="G525">
-            <v>15</v>
-          </cell>
-          <cell r="H525" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="526">
-          <cell r="B526">
-            <v>32</v>
-          </cell>
-          <cell r="F526">
-            <v>16</v>
-          </cell>
-          <cell r="G526" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="H526" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="527">
-          <cell r="B527">
-            <v>19</v>
-          </cell>
-          <cell r="F527">
-            <v>15</v>
-          </cell>
-          <cell r="G527" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="H527" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="528">
-          <cell r="B528">
-            <v>18</v>
-          </cell>
-          <cell r="F528">
-            <v>13</v>
-          </cell>
-          <cell r="G528" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="H528" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="529">
-          <cell r="B529">
-            <v>18</v>
-          </cell>
-          <cell r="F529">
-            <v>13</v>
-          </cell>
-          <cell r="G529" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="H529" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="530">
-          <cell r="B530">
-            <v>18</v>
-          </cell>
-          <cell r="F530">
-            <v>13</v>
-          </cell>
-          <cell r="G530" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="H530" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="531">
-          <cell r="B531">
-            <v>20</v>
-          </cell>
-          <cell r="F531">
-            <v>15</v>
-          </cell>
-          <cell r="G531" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="H531" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="532">
-          <cell r="B532">
-            <v>18</v>
-          </cell>
-          <cell r="F532">
-            <v>14</v>
-          </cell>
-          <cell r="G532" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="H532" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="533">
-          <cell r="B533">
-            <v>20</v>
-          </cell>
-          <cell r="F533">
-            <v>15</v>
-          </cell>
-          <cell r="G533" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="H533" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="534">
-          <cell r="B534">
-            <v>20</v>
-          </cell>
-          <cell r="F534">
-            <v>15</v>
-          </cell>
-          <cell r="G534" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="H534" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="535">
-          <cell r="B535">
-            <v>20</v>
-          </cell>
-          <cell r="F535">
-            <v>15</v>
-          </cell>
-          <cell r="G535" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="H535" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="536">
-          <cell r="B536">
-            <v>20</v>
-          </cell>
-          <cell r="F536">
-            <v>15</v>
-          </cell>
-          <cell r="G536" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="H536" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="537">
-          <cell r="B537">
-            <v>20</v>
-          </cell>
-          <cell r="F537">
-            <v>15</v>
-          </cell>
-          <cell r="G537" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="H537" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="538">
-          <cell r="B538">
-            <v>20</v>
-          </cell>
-          <cell r="F538">
-            <v>15</v>
-          </cell>
-          <cell r="G538" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="H538" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="539">
-          <cell r="B539">
-            <v>20</v>
-          </cell>
-          <cell r="F539">
-            <v>15</v>
-          </cell>
-          <cell r="G539" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="H539" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="540">
-          <cell r="B540">
-            <v>20</v>
-          </cell>
-          <cell r="F540">
-            <v>15</v>
-          </cell>
-          <cell r="G540" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="H540" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="541">
-          <cell r="B541">
-            <v>20</v>
-          </cell>
-          <cell r="F541">
-            <v>15</v>
-          </cell>
-          <cell r="G541" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="H541" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="542">
-          <cell r="B542">
-            <v>20</v>
-          </cell>
-          <cell r="F542">
-            <v>15</v>
-          </cell>
-          <cell r="G542" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="H542" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="543">
-          <cell r="B543">
-            <v>20</v>
-          </cell>
-          <cell r="F543">
-            <v>15</v>
-          </cell>
-          <cell r="G543" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="H543" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="544">
-          <cell r="B544">
-            <v>20</v>
-          </cell>
-          <cell r="F544">
-            <v>15</v>
-          </cell>
-          <cell r="G544" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="H544" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="545">
-          <cell r="B545">
-            <v>20</v>
-          </cell>
-          <cell r="F545">
-            <v>15</v>
-          </cell>
-          <cell r="G545" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="H545" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="546">
-          <cell r="B546">
-            <v>20</v>
-          </cell>
-          <cell r="F546">
-            <v>15</v>
-          </cell>
-          <cell r="G546" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="H546" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="547">
-          <cell r="B547">
-            <v>20</v>
-          </cell>
-          <cell r="F547">
-            <v>15</v>
-          </cell>
-          <cell r="G547" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="H547" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="548">
-          <cell r="B548">
-            <v>10</v>
-          </cell>
-          <cell r="F548">
-            <v>9</v>
-          </cell>
-          <cell r="G548" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="H548" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="549">
-          <cell r="B549">
-            <v>10</v>
-          </cell>
-          <cell r="F549" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="G549">
-            <v>9</v>
-          </cell>
-          <cell r="H549" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="550">
-          <cell r="B550">
-            <v>10</v>
-          </cell>
-          <cell r="F550" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="G550">
-            <v>9</v>
-          </cell>
-          <cell r="H550" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="551">
-          <cell r="B551">
-            <v>10</v>
-          </cell>
-          <cell r="F551" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="G551">
-            <v>9</v>
-          </cell>
-          <cell r="H551" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="552">
-          <cell r="B552">
-            <v>10</v>
-          </cell>
-          <cell r="F552" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="G552">
-            <v>9</v>
-          </cell>
-          <cell r="H552" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="553">
-          <cell r="B553">
-            <v>10</v>
-          </cell>
-          <cell r="F553" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="G553">
-            <v>9</v>
-          </cell>
-          <cell r="H553" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="554">
-          <cell r="B554">
-            <v>10</v>
-          </cell>
-          <cell r="F554" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="G554">
-            <v>9</v>
-          </cell>
-          <cell r="H554" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="555">
-          <cell r="B555">
-            <v>21</v>
-          </cell>
-          <cell r="F555" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="G555">
-            <v>15</v>
-          </cell>
-          <cell r="H555" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="556">
-          <cell r="B556">
-            <v>16</v>
-          </cell>
-          <cell r="F556" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="G556">
-            <v>9</v>
-          </cell>
-          <cell r="H556" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="557">
-          <cell r="B557">
-            <v>18</v>
-          </cell>
-          <cell r="F557" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="G557">
-            <v>11</v>
-          </cell>
-          <cell r="H557" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="558">
-          <cell r="B558">
-            <v>26</v>
-          </cell>
-          <cell r="F558" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="G558">
-            <v>16</v>
-          </cell>
-          <cell r="H558" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="559">
-          <cell r="B559">
-            <v>22</v>
-          </cell>
-          <cell r="F559" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="G559">
-            <v>13</v>
-          </cell>
-          <cell r="H559" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="560">
-          <cell r="B560">
-            <v>23</v>
-          </cell>
-          <cell r="F560" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="G560">
-            <v>13</v>
-          </cell>
-          <cell r="H560" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="561">
-          <cell r="B561">
-            <v>23</v>
-          </cell>
-          <cell r="F561" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="G561">
-            <v>13</v>
-          </cell>
-          <cell r="H561" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="562">
-          <cell r="B562">
-            <v>23</v>
-          </cell>
-          <cell r="F562" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="G562">
-            <v>13</v>
-          </cell>
-          <cell r="H562" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="563">
-          <cell r="B563">
-            <v>23</v>
-          </cell>
-          <cell r="F563" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="G563">
-            <v>13</v>
-          </cell>
-          <cell r="H563" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="564">
-          <cell r="B564">
-            <v>23</v>
-          </cell>
-          <cell r="F564" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="G564">
-            <v>13</v>
-          </cell>
-          <cell r="H564" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="565">
-          <cell r="B565">
-            <v>23</v>
-          </cell>
-          <cell r="F565" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="G565">
-            <v>13</v>
-          </cell>
-          <cell r="H565" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="566">
-          <cell r="B566">
-            <v>23</v>
-          </cell>
-          <cell r="F566" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="G566">
-            <v>13</v>
-          </cell>
-          <cell r="H566" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="567">
-          <cell r="B567">
-            <v>23</v>
-          </cell>
-          <cell r="F567" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="G567">
-            <v>13</v>
-          </cell>
-          <cell r="H567" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="568">
-          <cell r="B568">
-            <v>23</v>
-          </cell>
-          <cell r="F568" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="G568">
-            <v>13</v>
-          </cell>
-          <cell r="H568" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="569">
-          <cell r="B569">
-            <v>23</v>
-          </cell>
-          <cell r="F569" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="G569">
-            <v>13</v>
-          </cell>
-          <cell r="H569" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="570">
-          <cell r="B570">
-            <v>23</v>
-          </cell>
-          <cell r="F570" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="G570">
-            <v>13</v>
-          </cell>
-          <cell r="H570" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="571">
-          <cell r="B571">
-            <v>20</v>
-          </cell>
-          <cell r="F571" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="G571">
-            <v>12</v>
-          </cell>
-          <cell r="H571" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="572">
-          <cell r="B572">
-            <v>23</v>
-          </cell>
-          <cell r="F572" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="G572">
-            <v>13</v>
-          </cell>
-          <cell r="H572" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="573">
-          <cell r="B573">
-            <v>16</v>
-          </cell>
-          <cell r="F573" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="G573">
-            <v>10</v>
-          </cell>
-          <cell r="H573" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="574">
-          <cell r="B574">
-            <v>24</v>
-          </cell>
-          <cell r="F574" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="G574">
-            <v>13</v>
-          </cell>
-          <cell r="H574" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="575">
-          <cell r="B575">
-            <v>22</v>
-          </cell>
-          <cell r="F575" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="G575">
-            <v>13</v>
-          </cell>
-          <cell r="H575" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="576">
-          <cell r="B576">
-            <v>25</v>
-          </cell>
-          <cell r="F576" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="G576">
-            <v>15</v>
-          </cell>
-          <cell r="H576" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="577">
-          <cell r="B577">
-            <v>16</v>
-          </cell>
-          <cell r="F577" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="G577">
-            <v>9</v>
-          </cell>
-          <cell r="H577" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="578">
-          <cell r="B578">
-            <v>24</v>
-          </cell>
-          <cell r="F578" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="G578">
-            <v>14</v>
-          </cell>
-          <cell r="H578" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="579">
-          <cell r="B579">
-            <v>19</v>
-          </cell>
-          <cell r="F579" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="G579">
-            <v>11</v>
-          </cell>
-          <cell r="H579" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="580">
-          <cell r="B580">
-            <v>21</v>
-          </cell>
-          <cell r="F580" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="G580">
-            <v>13</v>
-          </cell>
-          <cell r="H580" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="581">
-          <cell r="B581">
-            <v>21</v>
-          </cell>
-          <cell r="F581" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="G581">
-            <v>13</v>
-          </cell>
-          <cell r="H581" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="582">
-          <cell r="B582">
-            <v>21</v>
-          </cell>
-          <cell r="F582" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="G582">
-            <v>13</v>
-          </cell>
-          <cell r="H582" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="583">
-          <cell r="B583">
-            <v>21</v>
-          </cell>
-          <cell r="F583" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="G583">
-            <v>13</v>
-          </cell>
-          <cell r="H583" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="584">
-          <cell r="B584">
-            <v>21</v>
-          </cell>
-          <cell r="F584" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="G584">
-            <v>13</v>
-          </cell>
-          <cell r="H584" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="585">
-          <cell r="B585">
-            <v>21</v>
-          </cell>
-          <cell r="F585" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="G585">
-            <v>12</v>
-          </cell>
-          <cell r="H585" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-        <row r="586">
-          <cell r="B586">
-            <v>24</v>
-          </cell>
-          <cell r="F586" t="e">
-            <v>#N/A</v>
-          </cell>
-          <cell r="G586">
-            <v>14</v>
-          </cell>
-          <cell r="H586" t="e">
-            <v>#N/A</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
@@ -26003,11 +17796,11 @@
         <v>0.66700000000000004</v>
       </c>
       <c r="U24">
-        <f t="shared" ref="U13:U76" si="4">IF(P24=Q24,B24,NA())</f>
+        <f t="shared" ref="U24:U76" si="4">IF(P24=Q24,B24,NA())</f>
         <v>4</v>
       </c>
       <c r="V24" t="e">
-        <f t="shared" ref="V13:V76" si="5">IF(P24&lt;&gt;Q24,B24,NA())</f>
+        <f t="shared" ref="V24:V76" si="5">IF(P24&lt;&gt;Q24,B24,NA())</f>
         <v>#N/A</v>
       </c>
     </row>
